--- a/public/templates/SmallPelagicLandingSite.template.xlsx
+++ b/public/templates/SmallPelagicLandingSite.template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="846">
   <si>
     <t>Form A</t>
   </si>
@@ -3201,10 +3201,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -3252,6 +3248,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -3845,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.5" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3859,63 +3858,65 @@
       <c r="A1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="55" t="s">
+        <v>808</v>
+      </c>
       <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>827</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1" thickBot="1">
       <c r="A9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="34"/>
     </row>
     <row r="10" spans="1:3" ht="14" thickTop="1">
@@ -3972,7 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4064,10 +4065,10 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
@@ -4091,10 +4092,10 @@
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
@@ -4118,10 +4119,10 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
@@ -4145,7 +4146,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="54"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -4172,7 +4173,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -4199,7 +4200,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -4226,7 +4227,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -4253,7 +4254,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -4280,7 +4281,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -4307,7 +4308,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
@@ -4334,7 +4335,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="54"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
@@ -4361,7 +4362,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="54"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -4388,7 +4389,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="54"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -4415,7 +4416,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="54"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -4442,7 +4443,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="54"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -4469,7 +4470,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -4496,7 +4497,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="54"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -4523,7 +4524,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="54"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -4550,7 +4551,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="54"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -4577,7 +4578,7 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="54"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -4604,7 +4605,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="54"/>
+      <c r="I22" s="53"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -4631,7 +4632,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="54"/>
+      <c r="I23" s="53"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
@@ -4658,7 +4659,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="54"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -4685,7 +4686,7 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="54"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
@@ -4712,7 +4713,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -4739,7 +4740,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="54"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -4766,7 +4767,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="54"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
@@ -4793,7 +4794,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="54"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
@@ -4820,7 +4821,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="54"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -4847,7 +4848,7 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="54"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
@@ -4874,7 +4875,7 @@
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="54"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -4901,7 +4902,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="54"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
@@ -4928,7 +4929,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="54"/>
+      <c r="I34" s="53"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -4955,7 +4956,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="54"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
@@ -4982,7 +4983,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="54"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -5009,7 +5010,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="54"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
@@ -5036,7 +5037,7 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="54"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -5063,7 +5064,7 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="54"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -5090,7 +5091,7 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="54"/>
+      <c r="I40" s="53"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -5117,7 +5118,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="54"/>
+      <c r="I41" s="53"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
@@ -5144,7 +5145,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="54"/>
+      <c r="I42" s="53"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -5171,7 +5172,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
-      <c r="I43" s="54"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
@@ -5198,7 +5199,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
-      <c r="I44" s="54"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -5225,7 +5226,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="54"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
@@ -5252,7 +5253,7 @@
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
-      <c r="I46" s="54"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -5279,7 +5280,7 @@
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="54"/>
+      <c r="I47" s="53"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -5306,7 +5307,7 @@
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="54"/>
+      <c r="I48" s="53"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -5333,7 +5334,7 @@
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="54"/>
+      <c r="I49" s="53"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -5360,7 +5361,7 @@
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="54"/>
+      <c r="I50" s="53"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -5387,7 +5388,7 @@
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="55"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
@@ -5541,7 +5542,7 @@
       <c r="A1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>826</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -5559,7 +5560,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
@@ -5569,7 +5570,7 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
@@ -5579,7 +5580,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
@@ -5589,7 +5590,7 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
@@ -5599,7 +5600,7 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
@@ -5609,7 +5610,7 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
@@ -5619,7 +5620,7 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
@@ -5629,7 +5630,7 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
@@ -5639,7 +5640,7 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
@@ -5649,7 +5650,7 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
@@ -5659,7 +5660,7 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
@@ -5669,7 +5670,7 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
@@ -5679,7 +5680,7 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
@@ -5689,7 +5690,7 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
@@ -5699,7 +5700,7 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -5709,7 +5710,7 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -5719,7 +5720,7 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -5729,7 +5730,7 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
@@ -5739,7 +5740,7 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
@@ -5749,7 +5750,7 @@
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
@@ -5759,7 +5760,7 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
@@ -5769,7 +5770,7 @@
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
@@ -5779,7 +5780,7 @@
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -5789,7 +5790,7 @@
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="51"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
@@ -5799,7 +5800,7 @@
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
@@ -5809,7 +5810,7 @@
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
@@ -5819,7 +5820,7 @@
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
@@ -5829,7 +5830,7 @@
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
@@ -5839,7 +5840,7 @@
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
@@ -5849,7 +5850,7 @@
       <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
@@ -5859,7 +5860,7 @@
       <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
@@ -5869,7 +5870,7 @@
       <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
@@ -5879,7 +5880,7 @@
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
@@ -5889,7 +5890,7 @@
       <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
@@ -5899,7 +5900,7 @@
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
@@ -5909,7 +5910,7 @@
       <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="51"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
@@ -5919,7 +5920,7 @@
       <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="51"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
@@ -5929,7 +5930,7 @@
       <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="51"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
@@ -5939,7 +5940,7 @@
       <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="51"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
@@ -5949,7 +5950,7 @@
       <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="51"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
@@ -5959,7 +5960,7 @@
       <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -5969,7 +5970,7 @@
       <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
@@ -5979,7 +5980,7 @@
       <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -5989,7 +5990,7 @@
       <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="51"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
@@ -5999,7 +6000,7 @@
       <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="15"/>
@@ -6009,7 +6010,7 @@
       <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="15"/>
@@ -6019,7 +6020,7 @@
       <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="51"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="15"/>
@@ -6029,7 +6030,7 @@
       <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="15"/>
@@ -6039,7 +6040,7 @@
       <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="51"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
@@ -6049,7 +6050,7 @@
       <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="51"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
@@ -6059,7 +6060,7 @@
       <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="51"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="15"/>
@@ -6069,7 +6070,7 @@
       <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="51"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="15"/>
@@ -6079,7 +6080,7 @@
       <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="51"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="15"/>
@@ -6089,7 +6090,7 @@
       <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="51"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="15"/>
@@ -6099,7 +6100,7 @@
       <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="51"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="15"/>
@@ -6109,7 +6110,7 @@
       <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="51"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="15"/>
@@ -6119,7 +6120,7 @@
       <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="51"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="15"/>
@@ -6129,7 +6130,7 @@
       <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="51"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="15"/>
@@ -6139,7 +6140,7 @@
       <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="51"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="15"/>
@@ -6149,7 +6150,7 @@
       <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="51"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="15"/>
@@ -6159,7 +6160,7 @@
       <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="51"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="15"/>
@@ -6169,7 +6170,7 @@
       <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="51"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="15"/>
@@ -6179,7 +6180,7 @@
       <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="51"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="15"/>
@@ -6189,7 +6190,7 @@
       <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="51"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="15"/>
@@ -6199,7 +6200,7 @@
       <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="51"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="15"/>
@@ -6209,7 +6210,7 @@
       <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="51"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="15"/>
@@ -6219,7 +6220,7 @@
       <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="51"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="15"/>
@@ -6229,7 +6230,7 @@
       <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="51"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="15"/>
@@ -6239,7 +6240,7 @@
       <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="51"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="15"/>
@@ -6249,7 +6250,7 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="51"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="15"/>
@@ -6259,7 +6260,7 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="51"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="15"/>
@@ -6269,7 +6270,7 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="51"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="15"/>
@@ -6279,7 +6280,7 @@
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="51"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="15"/>
@@ -6289,7 +6290,7 @@
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="51"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="15"/>
@@ -6299,7 +6300,7 @@
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="51"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="15"/>
@@ -6309,7 +6310,7 @@
       <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="51"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="15"/>
@@ -6319,7 +6320,7 @@
       <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="51"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="15"/>
@@ -6329,7 +6330,7 @@
       <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="51"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="15"/>
@@ -6339,7 +6340,7 @@
       <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="51"/>
+      <c r="B80" s="50"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="15"/>
@@ -6349,7 +6350,7 @@
       <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B81" s="51"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="15"/>
@@ -6359,7 +6360,7 @@
       <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="51"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="15"/>
@@ -6369,7 +6370,7 @@
       <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B83" s="51"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="15"/>
@@ -6379,7 +6380,7 @@
       <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B84" s="51"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="15"/>
@@ -6389,7 +6390,7 @@
       <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="51"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
       <c r="E85" s="15"/>
@@ -6399,7 +6400,7 @@
       <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B86" s="51"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="15"/>
@@ -6409,7 +6410,7 @@
       <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="51"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="15"/>
@@ -6419,7 +6420,7 @@
       <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B88" s="51"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="15"/>
@@ -6429,7 +6430,7 @@
       <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B89" s="51"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="15"/>
@@ -6439,7 +6440,7 @@
       <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="51"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
       <c r="E90" s="15"/>
@@ -6449,7 +6450,7 @@
       <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B91" s="51"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
       <c r="E91" s="15"/>
@@ -6459,7 +6460,7 @@
       <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="51"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
       <c r="E92" s="15"/>
@@ -6469,7 +6470,7 @@
       <c r="A93" s="12">
         <v>92</v>
       </c>
-      <c r="B93" s="51"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
       <c r="E93" s="15"/>
@@ -6479,7 +6480,7 @@
       <c r="A94" s="12">
         <v>93</v>
       </c>
-      <c r="B94" s="51"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
       <c r="E94" s="15"/>
@@ -6489,7 +6490,7 @@
       <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="51"/>
+      <c r="B95" s="50"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
       <c r="E95" s="15"/>
@@ -6499,7 +6500,7 @@
       <c r="A96" s="12">
         <v>95</v>
       </c>
-      <c r="B96" s="51"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
       <c r="E96" s="15"/>
@@ -6509,7 +6510,7 @@
       <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="51"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
       <c r="E97" s="15"/>
@@ -6519,7 +6520,7 @@
       <c r="A98" s="12">
         <v>97</v>
       </c>
-      <c r="B98" s="51"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
       <c r="E98" s="15"/>
@@ -6529,7 +6530,7 @@
       <c r="A99" s="12">
         <v>98</v>
       </c>
-      <c r="B99" s="51"/>
+      <c r="B99" s="50"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
       <c r="E99" s="15"/>
@@ -6539,7 +6540,7 @@
       <c r="A100" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="51"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="15"/>
@@ -6549,7 +6550,7 @@
       <c r="A101" s="12">
         <v>100</v>
       </c>
-      <c r="B101" s="51"/>
+      <c r="B101" s="50"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="15"/>
@@ -6559,7 +6560,7 @@
       <c r="A102" s="12">
         <v>101</v>
       </c>
-      <c r="B102" s="51"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
       <c r="E102" s="15"/>
@@ -6568,7 +6569,7 @@
       <c r="A103" s="12">
         <v>102</v>
       </c>
-      <c r="B103" s="51"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
       <c r="E103" s="15"/>
@@ -6577,7 +6578,7 @@
       <c r="A104" s="12">
         <v>103</v>
       </c>
-      <c r="B104" s="51"/>
+      <c r="B104" s="50"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
       <c r="E104" s="15"/>
@@ -6586,7 +6587,7 @@
       <c r="A105" s="12">
         <v>104</v>
       </c>
-      <c r="B105" s="51"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
       <c r="E105" s="15"/>
@@ -6595,7 +6596,7 @@
       <c r="A106" s="12">
         <v>105</v>
       </c>
-      <c r="B106" s="51"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
       <c r="E106" s="15"/>
@@ -6604,7 +6605,7 @@
       <c r="A107" s="12">
         <v>106</v>
       </c>
-      <c r="B107" s="51"/>
+      <c r="B107" s="50"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
       <c r="E107" s="15"/>
@@ -6613,7 +6614,7 @@
       <c r="A108" s="12">
         <v>107</v>
       </c>
-      <c r="B108" s="51"/>
+      <c r="B108" s="50"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
       <c r="E108" s="15"/>
@@ -6622,7 +6623,7 @@
       <c r="A109" s="12">
         <v>108</v>
       </c>
-      <c r="B109" s="51"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
       <c r="E109" s="15"/>
@@ -6631,7 +6632,7 @@
       <c r="A110" s="12">
         <v>109</v>
       </c>
-      <c r="B110" s="51"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
       <c r="E110" s="15"/>
@@ -6640,7 +6641,7 @@
       <c r="A111" s="12">
         <v>110</v>
       </c>
-      <c r="B111" s="51"/>
+      <c r="B111" s="50"/>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
       <c r="E111" s="15"/>
@@ -6649,7 +6650,7 @@
       <c r="A112" s="12">
         <v>111</v>
       </c>
-      <c r="B112" s="51"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
       <c r="E112" s="15"/>
@@ -6658,7 +6659,7 @@
       <c r="A113" s="12">
         <v>112</v>
       </c>
-      <c r="B113" s="51"/>
+      <c r="B113" s="50"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
       <c r="E113" s="15"/>
@@ -6667,7 +6668,7 @@
       <c r="A114" s="12">
         <v>113</v>
       </c>
-      <c r="B114" s="51"/>
+      <c r="B114" s="50"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
       <c r="E114" s="15"/>
@@ -6676,7 +6677,7 @@
       <c r="A115" s="12">
         <v>114</v>
       </c>
-      <c r="B115" s="51"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
       <c r="E115" s="15"/>
@@ -6685,7 +6686,7 @@
       <c r="A116" s="12">
         <v>115</v>
       </c>
-      <c r="B116" s="51"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
       <c r="E116" s="15"/>
@@ -6694,7 +6695,7 @@
       <c r="A117" s="12">
         <v>116</v>
       </c>
-      <c r="B117" s="51"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
       <c r="E117" s="15"/>
@@ -6703,7 +6704,7 @@
       <c r="A118" s="12">
         <v>117</v>
       </c>
-      <c r="B118" s="51"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="15"/>
@@ -6712,7 +6713,7 @@
       <c r="A119" s="12">
         <v>118</v>
       </c>
-      <c r="B119" s="51"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
       <c r="E119" s="15"/>
@@ -6721,7 +6722,7 @@
       <c r="A120" s="12">
         <v>119</v>
       </c>
-      <c r="B120" s="51"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
       <c r="E120" s="15"/>
@@ -6730,7 +6731,7 @@
       <c r="A121" s="12">
         <v>120</v>
       </c>
-      <c r="B121" s="51"/>
+      <c r="B121" s="50"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
       <c r="E121" s="15"/>
@@ -6739,7 +6740,7 @@
       <c r="A122" s="12">
         <v>121</v>
       </c>
-      <c r="B122" s="51"/>
+      <c r="B122" s="50"/>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
       <c r="E122" s="15"/>
@@ -6748,7 +6749,7 @@
       <c r="A123" s="12">
         <v>122</v>
       </c>
-      <c r="B123" s="51"/>
+      <c r="B123" s="50"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
       <c r="E123" s="15"/>
@@ -6757,7 +6758,7 @@
       <c r="A124" s="12">
         <v>123</v>
       </c>
-      <c r="B124" s="51"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
       <c r="E124" s="15"/>
@@ -6766,7 +6767,7 @@
       <c r="A125" s="12">
         <v>124</v>
       </c>
-      <c r="B125" s="51"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
       <c r="E125" s="15"/>
@@ -6775,7 +6776,7 @@
       <c r="A126" s="12">
         <v>125</v>
       </c>
-      <c r="B126" s="51"/>
+      <c r="B126" s="50"/>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
       <c r="E126" s="15"/>
@@ -6784,7 +6785,7 @@
       <c r="A127" s="12">
         <v>126</v>
       </c>
-      <c r="B127" s="51"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
       <c r="E127" s="15"/>
@@ -6793,7 +6794,7 @@
       <c r="A128" s="12">
         <v>127</v>
       </c>
-      <c r="B128" s="51"/>
+      <c r="B128" s="50"/>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
       <c r="E128" s="15"/>
@@ -6802,7 +6803,7 @@
       <c r="A129" s="12">
         <v>128</v>
       </c>
-      <c r="B129" s="51"/>
+      <c r="B129" s="50"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
       <c r="E129" s="15"/>
@@ -6811,7 +6812,7 @@
       <c r="A130" s="12">
         <v>129</v>
       </c>
-      <c r="B130" s="51"/>
+      <c r="B130" s="50"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
       <c r="E130" s="15"/>
@@ -6820,7 +6821,7 @@
       <c r="A131" s="12">
         <v>130</v>
       </c>
-      <c r="B131" s="51"/>
+      <c r="B131" s="50"/>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
       <c r="E131" s="15"/>
@@ -6829,7 +6830,7 @@
       <c r="A132" s="12">
         <v>131</v>
       </c>
-      <c r="B132" s="51"/>
+      <c r="B132" s="50"/>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
       <c r="E132" s="15"/>
@@ -6838,7 +6839,7 @@
       <c r="A133" s="12">
         <v>132</v>
       </c>
-      <c r="B133" s="51"/>
+      <c r="B133" s="50"/>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
       <c r="E133" s="15"/>
@@ -6847,7 +6848,7 @@
       <c r="A134" s="12">
         <v>133</v>
       </c>
-      <c r="B134" s="51"/>
+      <c r="B134" s="50"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
       <c r="E134" s="15"/>
@@ -6856,7 +6857,7 @@
       <c r="A135" s="12">
         <v>134</v>
       </c>
-      <c r="B135" s="51"/>
+      <c r="B135" s="50"/>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
       <c r="E135" s="15"/>
@@ -6865,7 +6866,7 @@
       <c r="A136" s="12">
         <v>135</v>
       </c>
-      <c r="B136" s="51"/>
+      <c r="B136" s="50"/>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
       <c r="E136" s="15"/>
@@ -6874,7 +6875,7 @@
       <c r="A137" s="12">
         <v>136</v>
       </c>
-      <c r="B137" s="51"/>
+      <c r="B137" s="50"/>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
       <c r="E137" s="15"/>
@@ -6883,7 +6884,7 @@
       <c r="A138" s="12">
         <v>137</v>
       </c>
-      <c r="B138" s="51"/>
+      <c r="B138" s="50"/>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
       <c r="E138" s="15"/>
@@ -6892,7 +6893,7 @@
       <c r="A139" s="12">
         <v>138</v>
       </c>
-      <c r="B139" s="51"/>
+      <c r="B139" s="50"/>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
       <c r="E139" s="15"/>
@@ -6901,7 +6902,7 @@
       <c r="A140" s="12">
         <v>139</v>
       </c>
-      <c r="B140" s="51"/>
+      <c r="B140" s="50"/>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
       <c r="E140" s="15"/>
@@ -6910,7 +6911,7 @@
       <c r="A141" s="12">
         <v>140</v>
       </c>
-      <c r="B141" s="51"/>
+      <c r="B141" s="50"/>
       <c r="C141" s="14"/>
       <c r="D141" s="14"/>
       <c r="E141" s="15"/>
@@ -6919,7 +6920,7 @@
       <c r="A142" s="12">
         <v>141</v>
       </c>
-      <c r="B142" s="51"/>
+      <c r="B142" s="50"/>
       <c r="C142" s="14"/>
       <c r="D142" s="14"/>
       <c r="E142" s="15"/>
@@ -6928,7 +6929,7 @@
       <c r="A143" s="12">
         <v>142</v>
       </c>
-      <c r="B143" s="51"/>
+      <c r="B143" s="50"/>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
       <c r="E143" s="15"/>
@@ -6937,7 +6938,7 @@
       <c r="A144" s="12">
         <v>143</v>
       </c>
-      <c r="B144" s="51"/>
+      <c r="B144" s="50"/>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
       <c r="E144" s="15"/>
@@ -6946,7 +6947,7 @@
       <c r="A145" s="12">
         <v>144</v>
       </c>
-      <c r="B145" s="51"/>
+      <c r="B145" s="50"/>
       <c r="C145" s="14"/>
       <c r="D145" s="14"/>
       <c r="E145" s="15"/>
@@ -6955,7 +6956,7 @@
       <c r="A146" s="12">
         <v>145</v>
       </c>
-      <c r="B146" s="51"/>
+      <c r="B146" s="50"/>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
       <c r="E146" s="15"/>
@@ -6964,7 +6965,7 @@
       <c r="A147" s="12">
         <v>146</v>
       </c>
-      <c r="B147" s="51"/>
+      <c r="B147" s="50"/>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
       <c r="E147" s="15"/>
@@ -6973,7 +6974,7 @@
       <c r="A148" s="12">
         <v>147</v>
       </c>
-      <c r="B148" s="51"/>
+      <c r="B148" s="50"/>
       <c r="C148" s="14"/>
       <c r="D148" s="14"/>
       <c r="E148" s="15"/>
@@ -6982,7 +6983,7 @@
       <c r="A149" s="12">
         <v>148</v>
       </c>
-      <c r="B149" s="51"/>
+      <c r="B149" s="50"/>
       <c r="C149" s="14"/>
       <c r="D149" s="14"/>
       <c r="E149" s="15"/>
@@ -6991,7 +6992,7 @@
       <c r="A150" s="12">
         <v>149</v>
       </c>
-      <c r="B150" s="51"/>
+      <c r="B150" s="50"/>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
       <c r="E150" s="15"/>
@@ -7000,7 +7001,7 @@
       <c r="A151" s="12">
         <v>150</v>
       </c>
-      <c r="B151" s="51"/>
+      <c r="B151" s="50"/>
       <c r="C151" s="14"/>
       <c r="D151" s="14"/>
       <c r="E151" s="15"/>
@@ -7009,7 +7010,7 @@
       <c r="A152" s="12">
         <v>151</v>
       </c>
-      <c r="B152" s="51"/>
+      <c r="B152" s="50"/>
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="15"/>
@@ -7018,7 +7019,7 @@
       <c r="A153" s="12">
         <v>152</v>
       </c>
-      <c r="B153" s="51"/>
+      <c r="B153" s="50"/>
       <c r="C153" s="14"/>
       <c r="D153" s="14"/>
       <c r="E153" s="15"/>
@@ -7027,7 +7028,7 @@
       <c r="A154" s="12">
         <v>153</v>
       </c>
-      <c r="B154" s="51"/>
+      <c r="B154" s="50"/>
       <c r="C154" s="14"/>
       <c r="D154" s="14"/>
       <c r="E154" s="15"/>
@@ -7036,7 +7037,7 @@
       <c r="A155" s="12">
         <v>154</v>
       </c>
-      <c r="B155" s="51"/>
+      <c r="B155" s="50"/>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
       <c r="E155" s="15"/>
@@ -7045,7 +7046,7 @@
       <c r="A156" s="12">
         <v>155</v>
       </c>
-      <c r="B156" s="51"/>
+      <c r="B156" s="50"/>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
       <c r="E156" s="15"/>
@@ -7054,7 +7055,7 @@
       <c r="A157" s="12">
         <v>156</v>
       </c>
-      <c r="B157" s="51"/>
+      <c r="B157" s="50"/>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
       <c r="E157" s="15"/>
@@ -7063,7 +7064,7 @@
       <c r="A158" s="12">
         <v>157</v>
       </c>
-      <c r="B158" s="51"/>
+      <c r="B158" s="50"/>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
       <c r="E158" s="15"/>
@@ -7072,7 +7073,7 @@
       <c r="A159" s="12">
         <v>158</v>
       </c>
-      <c r="B159" s="51"/>
+      <c r="B159" s="50"/>
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
       <c r="E159" s="15"/>
@@ -7081,7 +7082,7 @@
       <c r="A160" s="12">
         <v>159</v>
       </c>
-      <c r="B160" s="51"/>
+      <c r="B160" s="50"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
       <c r="E160" s="15"/>
@@ -7090,7 +7091,7 @@
       <c r="A161" s="12">
         <v>160</v>
       </c>
-      <c r="B161" s="51"/>
+      <c r="B161" s="50"/>
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
       <c r="E161" s="15"/>
@@ -7099,7 +7100,7 @@
       <c r="A162" s="12">
         <v>161</v>
       </c>
-      <c r="B162" s="51"/>
+      <c r="B162" s="50"/>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
       <c r="E162" s="15"/>
@@ -7108,7 +7109,7 @@
       <c r="A163" s="12">
         <v>162</v>
       </c>
-      <c r="B163" s="51"/>
+      <c r="B163" s="50"/>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
       <c r="E163" s="15"/>
@@ -7117,7 +7118,7 @@
       <c r="A164" s="12">
         <v>163</v>
       </c>
-      <c r="B164" s="51"/>
+      <c r="B164" s="50"/>
       <c r="C164" s="14"/>
       <c r="D164" s="14"/>
       <c r="E164" s="15"/>
@@ -7126,7 +7127,7 @@
       <c r="A165" s="12">
         <v>164</v>
       </c>
-      <c r="B165" s="51"/>
+      <c r="B165" s="50"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
       <c r="E165" s="15"/>
@@ -7135,7 +7136,7 @@
       <c r="A166" s="12">
         <v>165</v>
       </c>
-      <c r="B166" s="51"/>
+      <c r="B166" s="50"/>
       <c r="C166" s="14"/>
       <c r="D166" s="14"/>
       <c r="E166" s="15"/>
@@ -7144,7 +7145,7 @@
       <c r="A167" s="12">
         <v>166</v>
       </c>
-      <c r="B167" s="51"/>
+      <c r="B167" s="50"/>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
       <c r="E167" s="15"/>
@@ -7153,7 +7154,7 @@
       <c r="A168" s="12">
         <v>167</v>
       </c>
-      <c r="B168" s="51"/>
+      <c r="B168" s="50"/>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
       <c r="E168" s="15"/>
@@ -7162,7 +7163,7 @@
       <c r="A169" s="12">
         <v>168</v>
       </c>
-      <c r="B169" s="51"/>
+      <c r="B169" s="50"/>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
       <c r="E169" s="15"/>
@@ -7171,7 +7172,7 @@
       <c r="A170" s="12">
         <v>169</v>
       </c>
-      <c r="B170" s="51"/>
+      <c r="B170" s="50"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
       <c r="E170" s="15"/>
@@ -7180,7 +7181,7 @@
       <c r="A171" s="12">
         <v>170</v>
       </c>
-      <c r="B171" s="51"/>
+      <c r="B171" s="50"/>
       <c r="C171" s="14"/>
       <c r="D171" s="14"/>
       <c r="E171" s="15"/>
@@ -7189,7 +7190,7 @@
       <c r="A172" s="12">
         <v>171</v>
       </c>
-      <c r="B172" s="51"/>
+      <c r="B172" s="50"/>
       <c r="C172" s="14"/>
       <c r="D172" s="14"/>
       <c r="E172" s="15"/>
@@ -7198,7 +7199,7 @@
       <c r="A173" s="12">
         <v>172</v>
       </c>
-      <c r="B173" s="51"/>
+      <c r="B173" s="50"/>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
       <c r="E173" s="15"/>
@@ -7207,7 +7208,7 @@
       <c r="A174" s="12">
         <v>173</v>
       </c>
-      <c r="B174" s="51"/>
+      <c r="B174" s="50"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
       <c r="E174" s="15"/>
@@ -7216,7 +7217,7 @@
       <c r="A175" s="12">
         <v>174</v>
       </c>
-      <c r="B175" s="51"/>
+      <c r="B175" s="50"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
       <c r="E175" s="15"/>
@@ -7225,7 +7226,7 @@
       <c r="A176" s="12">
         <v>175</v>
       </c>
-      <c r="B176" s="51"/>
+      <c r="B176" s="50"/>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
       <c r="E176" s="15"/>
@@ -7234,7 +7235,7 @@
       <c r="A177" s="12">
         <v>176</v>
       </c>
-      <c r="B177" s="51"/>
+      <c r="B177" s="50"/>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
       <c r="E177" s="15"/>
@@ -7243,7 +7244,7 @@
       <c r="A178" s="12">
         <v>177</v>
       </c>
-      <c r="B178" s="51"/>
+      <c r="B178" s="50"/>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
       <c r="E178" s="15"/>
@@ -7252,7 +7253,7 @@
       <c r="A179" s="12">
         <v>178</v>
       </c>
-      <c r="B179" s="51"/>
+      <c r="B179" s="50"/>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
       <c r="E179" s="15"/>
@@ -7261,7 +7262,7 @@
       <c r="A180" s="12">
         <v>179</v>
       </c>
-      <c r="B180" s="51"/>
+      <c r="B180" s="50"/>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
       <c r="E180" s="15"/>
@@ -7270,7 +7271,7 @@
       <c r="A181" s="12">
         <v>180</v>
       </c>
-      <c r="B181" s="51"/>
+      <c r="B181" s="50"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
       <c r="E181" s="15"/>
@@ -7279,7 +7280,7 @@
       <c r="A182" s="12">
         <v>181</v>
       </c>
-      <c r="B182" s="51"/>
+      <c r="B182" s="50"/>
       <c r="C182" s="14"/>
       <c r="D182" s="14"/>
       <c r="E182" s="15"/>
@@ -7288,7 +7289,7 @@
       <c r="A183" s="12">
         <v>182</v>
       </c>
-      <c r="B183" s="51"/>
+      <c r="B183" s="50"/>
       <c r="C183" s="14"/>
       <c r="D183" s="14"/>
       <c r="E183" s="15"/>
@@ -7297,7 +7298,7 @@
       <c r="A184" s="12">
         <v>183</v>
       </c>
-      <c r="B184" s="51"/>
+      <c r="B184" s="50"/>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
       <c r="E184" s="15"/>
@@ -7306,7 +7307,7 @@
       <c r="A185" s="12">
         <v>184</v>
       </c>
-      <c r="B185" s="51"/>
+      <c r="B185" s="50"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
       <c r="E185" s="15"/>
@@ -7315,7 +7316,7 @@
       <c r="A186" s="12">
         <v>185</v>
       </c>
-      <c r="B186" s="51"/>
+      <c r="B186" s="50"/>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
       <c r="E186" s="15"/>
@@ -7324,7 +7325,7 @@
       <c r="A187" s="12">
         <v>186</v>
       </c>
-      <c r="B187" s="51"/>
+      <c r="B187" s="50"/>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
       <c r="E187" s="15"/>
@@ -7333,7 +7334,7 @@
       <c r="A188" s="12">
         <v>187</v>
       </c>
-      <c r="B188" s="51"/>
+      <c r="B188" s="50"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
       <c r="E188" s="15"/>
@@ -7342,7 +7343,7 @@
       <c r="A189" s="12">
         <v>188</v>
       </c>
-      <c r="B189" s="51"/>
+      <c r="B189" s="50"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
       <c r="E189" s="15"/>
@@ -7351,7 +7352,7 @@
       <c r="A190" s="12">
         <v>189</v>
       </c>
-      <c r="B190" s="51"/>
+      <c r="B190" s="50"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
       <c r="E190" s="15"/>
@@ -7360,7 +7361,7 @@
       <c r="A191" s="12">
         <v>190</v>
       </c>
-      <c r="B191" s="51"/>
+      <c r="B191" s="50"/>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
       <c r="E191" s="15"/>
@@ -7369,7 +7370,7 @@
       <c r="A192" s="12">
         <v>191</v>
       </c>
-      <c r="B192" s="51"/>
+      <c r="B192" s="50"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
       <c r="E192" s="15"/>
@@ -7378,7 +7379,7 @@
       <c r="A193" s="12">
         <v>192</v>
       </c>
-      <c r="B193" s="51"/>
+      <c r="B193" s="50"/>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
       <c r="E193" s="15"/>
@@ -7387,7 +7388,7 @@
       <c r="A194" s="12">
         <v>193</v>
       </c>
-      <c r="B194" s="51"/>
+      <c r="B194" s="50"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
       <c r="E194" s="15"/>
@@ -7396,7 +7397,7 @@
       <c r="A195" s="12">
         <v>194</v>
       </c>
-      <c r="B195" s="51"/>
+      <c r="B195" s="50"/>
       <c r="C195" s="14"/>
       <c r="D195" s="14"/>
       <c r="E195" s="15"/>
@@ -7405,7 +7406,7 @@
       <c r="A196" s="12">
         <v>195</v>
       </c>
-      <c r="B196" s="51"/>
+      <c r="B196" s="50"/>
       <c r="C196" s="14"/>
       <c r="D196" s="14"/>
       <c r="E196" s="15"/>
@@ -7414,7 +7415,7 @@
       <c r="A197" s="12">
         <v>196</v>
       </c>
-      <c r="B197" s="51"/>
+      <c r="B197" s="50"/>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
       <c r="E197" s="15"/>
@@ -7423,7 +7424,7 @@
       <c r="A198" s="12">
         <v>197</v>
       </c>
-      <c r="B198" s="51"/>
+      <c r="B198" s="50"/>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
       <c r="E198" s="15"/>
@@ -7432,7 +7433,7 @@
       <c r="A199" s="12">
         <v>198</v>
       </c>
-      <c r="B199" s="51"/>
+      <c r="B199" s="50"/>
       <c r="C199" s="14"/>
       <c r="D199" s="14"/>
       <c r="E199" s="15"/>
@@ -7441,7 +7442,7 @@
       <c r="A200" s="12">
         <v>199</v>
       </c>
-      <c r="B200" s="51"/>
+      <c r="B200" s="50"/>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
       <c r="E200" s="15"/>
@@ -7450,7 +7451,7 @@
       <c r="A201" s="12">
         <v>200</v>
       </c>
-      <c r="B201" s="51"/>
+      <c r="B201" s="50"/>
       <c r="C201" s="14"/>
       <c r="D201" s="14"/>
       <c r="E201" s="15"/>
@@ -7459,7 +7460,7 @@
       <c r="A202" s="12">
         <v>201</v>
       </c>
-      <c r="B202" s="51"/>
+      <c r="B202" s="50"/>
       <c r="C202" s="14"/>
       <c r="D202" s="14"/>
       <c r="E202" s="15"/>
@@ -7468,7 +7469,7 @@
       <c r="A203" s="12">
         <v>202</v>
       </c>
-      <c r="B203" s="51"/>
+      <c r="B203" s="50"/>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
       <c r="E203" s="15"/>
@@ -7477,7 +7478,7 @@
       <c r="A204" s="12">
         <v>203</v>
       </c>
-      <c r="B204" s="51"/>
+      <c r="B204" s="50"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
       <c r="E204" s="15"/>
@@ -7486,7 +7487,7 @@
       <c r="A205" s="12">
         <v>204</v>
       </c>
-      <c r="B205" s="51"/>
+      <c r="B205" s="50"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
       <c r="E205" s="15"/>
@@ -7495,7 +7496,7 @@
       <c r="A206" s="12">
         <v>205</v>
       </c>
-      <c r="B206" s="51"/>
+      <c r="B206" s="50"/>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
       <c r="E206" s="15"/>
@@ -7504,7 +7505,7 @@
       <c r="A207" s="12">
         <v>206</v>
       </c>
-      <c r="B207" s="51"/>
+      <c r="B207" s="50"/>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
       <c r="E207" s="15"/>
@@ -7513,7 +7514,7 @@
       <c r="A208" s="12">
         <v>207</v>
       </c>
-      <c r="B208" s="51"/>
+      <c r="B208" s="50"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
       <c r="E208" s="15"/>
@@ -7522,7 +7523,7 @@
       <c r="A209" s="12">
         <v>208</v>
       </c>
-      <c r="B209" s="51"/>
+      <c r="B209" s="50"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
       <c r="E209" s="15"/>
@@ -7531,7 +7532,7 @@
       <c r="A210" s="12">
         <v>209</v>
       </c>
-      <c r="B210" s="51"/>
+      <c r="B210" s="50"/>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
       <c r="E210" s="15"/>
@@ -7540,7 +7541,7 @@
       <c r="A211" s="12">
         <v>210</v>
       </c>
-      <c r="B211" s="51"/>
+      <c r="B211" s="50"/>
       <c r="C211" s="14"/>
       <c r="D211" s="14"/>
       <c r="E211" s="15"/>
@@ -7549,7 +7550,7 @@
       <c r="A212" s="12">
         <v>211</v>
       </c>
-      <c r="B212" s="51"/>
+      <c r="B212" s="50"/>
       <c r="C212" s="14"/>
       <c r="D212" s="14"/>
       <c r="E212" s="15"/>
@@ -7558,7 +7559,7 @@
       <c r="A213" s="12">
         <v>212</v>
       </c>
-      <c r="B213" s="51"/>
+      <c r="B213" s="50"/>
       <c r="C213" s="14"/>
       <c r="D213" s="14"/>
       <c r="E213" s="15"/>
@@ -7567,7 +7568,7 @@
       <c r="A214" s="12">
         <v>213</v>
       </c>
-      <c r="B214" s="51"/>
+      <c r="B214" s="50"/>
       <c r="C214" s="14"/>
       <c r="D214" s="14"/>
       <c r="E214" s="15"/>
@@ -7576,7 +7577,7 @@
       <c r="A215" s="12">
         <v>214</v>
       </c>
-      <c r="B215" s="51"/>
+      <c r="B215" s="50"/>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
       <c r="E215" s="15"/>
@@ -7585,7 +7586,7 @@
       <c r="A216" s="12">
         <v>215</v>
       </c>
-      <c r="B216" s="51"/>
+      <c r="B216" s="50"/>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
       <c r="E216" s="15"/>
@@ -7594,7 +7595,7 @@
       <c r="A217" s="12">
         <v>216</v>
       </c>
-      <c r="B217" s="51"/>
+      <c r="B217" s="50"/>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
       <c r="E217" s="15"/>
@@ -7603,7 +7604,7 @@
       <c r="A218" s="12">
         <v>217</v>
       </c>
-      <c r="B218" s="51"/>
+      <c r="B218" s="50"/>
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
       <c r="E218" s="15"/>
@@ -7612,7 +7613,7 @@
       <c r="A219" s="12">
         <v>218</v>
       </c>
-      <c r="B219" s="51"/>
+      <c r="B219" s="50"/>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
       <c r="E219" s="15"/>
@@ -7621,7 +7622,7 @@
       <c r="A220" s="12">
         <v>219</v>
       </c>
-      <c r="B220" s="51"/>
+      <c r="B220" s="50"/>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
       <c r="E220" s="15"/>
@@ -7630,7 +7631,7 @@
       <c r="A221" s="12">
         <v>220</v>
       </c>
-      <c r="B221" s="51"/>
+      <c r="B221" s="50"/>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
       <c r="E221" s="15"/>
@@ -7639,7 +7640,7 @@
       <c r="A222" s="12">
         <v>221</v>
       </c>
-      <c r="B222" s="51"/>
+      <c r="B222" s="50"/>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
       <c r="E222" s="15"/>
@@ -7648,7 +7649,7 @@
       <c r="A223" s="12">
         <v>222</v>
       </c>
-      <c r="B223" s="51"/>
+      <c r="B223" s="50"/>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
       <c r="E223" s="15"/>
@@ -7657,7 +7658,7 @@
       <c r="A224" s="12">
         <v>223</v>
       </c>
-      <c r="B224" s="51"/>
+      <c r="B224" s="50"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
       <c r="E224" s="15"/>
@@ -7666,7 +7667,7 @@
       <c r="A225" s="12">
         <v>224</v>
       </c>
-      <c r="B225" s="51"/>
+      <c r="B225" s="50"/>
       <c r="C225" s="14"/>
       <c r="D225" s="14"/>
       <c r="E225" s="15"/>
@@ -7675,7 +7676,7 @@
       <c r="A226" s="12">
         <v>225</v>
       </c>
-      <c r="B226" s="51"/>
+      <c r="B226" s="50"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14"/>
       <c r="E226" s="15"/>
@@ -7684,7 +7685,7 @@
       <c r="A227" s="12">
         <v>226</v>
       </c>
-      <c r="B227" s="51"/>
+      <c r="B227" s="50"/>
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
       <c r="E227" s="15"/>
@@ -7693,7 +7694,7 @@
       <c r="A228" s="12">
         <v>227</v>
       </c>
-      <c r="B228" s="51"/>
+      <c r="B228" s="50"/>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
       <c r="E228" s="15"/>
@@ -7702,7 +7703,7 @@
       <c r="A229" s="12">
         <v>228</v>
       </c>
-      <c r="B229" s="51"/>
+      <c r="B229" s="50"/>
       <c r="C229" s="14"/>
       <c r="D229" s="14"/>
       <c r="E229" s="15"/>
@@ -7711,7 +7712,7 @@
       <c r="A230" s="12">
         <v>229</v>
       </c>
-      <c r="B230" s="51"/>
+      <c r="B230" s="50"/>
       <c r="C230" s="14"/>
       <c r="D230" s="14"/>
       <c r="E230" s="15"/>
@@ -7720,7 +7721,7 @@
       <c r="A231" s="12">
         <v>230</v>
       </c>
-      <c r="B231" s="51"/>
+      <c r="B231" s="50"/>
       <c r="C231" s="14"/>
       <c r="D231" s="14"/>
       <c r="E231" s="15"/>
@@ -7729,7 +7730,7 @@
       <c r="A232" s="12">
         <v>231</v>
       </c>
-      <c r="B232" s="51"/>
+      <c r="B232" s="50"/>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
       <c r="E232" s="15"/>
@@ -7738,7 +7739,7 @@
       <c r="A233" s="12">
         <v>232</v>
       </c>
-      <c r="B233" s="51"/>
+      <c r="B233" s="50"/>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
       <c r="E233" s="15"/>
@@ -7747,7 +7748,7 @@
       <c r="A234" s="12">
         <v>233</v>
       </c>
-      <c r="B234" s="51"/>
+      <c r="B234" s="50"/>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
       <c r="E234" s="15"/>
@@ -7756,7 +7757,7 @@
       <c r="A235" s="12">
         <v>234</v>
       </c>
-      <c r="B235" s="51"/>
+      <c r="B235" s="50"/>
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
       <c r="E235" s="15"/>
@@ -7765,7 +7766,7 @@
       <c r="A236" s="12">
         <v>235</v>
       </c>
-      <c r="B236" s="51"/>
+      <c r="B236" s="50"/>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
       <c r="E236" s="15"/>
@@ -7774,7 +7775,7 @@
       <c r="A237" s="12">
         <v>236</v>
       </c>
-      <c r="B237" s="51"/>
+      <c r="B237" s="50"/>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
       <c r="E237" s="15"/>
@@ -7783,7 +7784,7 @@
       <c r="A238" s="12">
         <v>237</v>
       </c>
-      <c r="B238" s="51"/>
+      <c r="B238" s="50"/>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
       <c r="E238" s="15"/>
@@ -7792,7 +7793,7 @@
       <c r="A239" s="12">
         <v>238</v>
       </c>
-      <c r="B239" s="51"/>
+      <c r="B239" s="50"/>
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
       <c r="E239" s="15"/>
@@ -7801,7 +7802,7 @@
       <c r="A240" s="12">
         <v>239</v>
       </c>
-      <c r="B240" s="51"/>
+      <c r="B240" s="50"/>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
       <c r="E240" s="15"/>
@@ -7810,7 +7811,7 @@
       <c r="A241" s="12">
         <v>240</v>
       </c>
-      <c r="B241" s="51"/>
+      <c r="B241" s="50"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
       <c r="E241" s="15"/>
@@ -7819,7 +7820,7 @@
       <c r="A242" s="12">
         <v>241</v>
       </c>
-      <c r="B242" s="51"/>
+      <c r="B242" s="50"/>
       <c r="C242" s="14"/>
       <c r="D242" s="14"/>
       <c r="E242" s="15"/>
@@ -7828,7 +7829,7 @@
       <c r="A243" s="12">
         <v>242</v>
       </c>
-      <c r="B243" s="51"/>
+      <c r="B243" s="50"/>
       <c r="C243" s="14"/>
       <c r="D243" s="14"/>
       <c r="E243" s="15"/>
@@ -7837,7 +7838,7 @@
       <c r="A244" s="12">
         <v>243</v>
       </c>
-      <c r="B244" s="51"/>
+      <c r="B244" s="50"/>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
       <c r="E244" s="15"/>
@@ -7846,7 +7847,7 @@
       <c r="A245" s="12">
         <v>244</v>
       </c>
-      <c r="B245" s="51"/>
+      <c r="B245" s="50"/>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
       <c r="E245" s="15"/>
@@ -7855,7 +7856,7 @@
       <c r="A246" s="12">
         <v>245</v>
       </c>
-      <c r="B246" s="51"/>
+      <c r="B246" s="50"/>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
       <c r="E246" s="15"/>
@@ -7864,7 +7865,7 @@
       <c r="A247" s="12">
         <v>246</v>
       </c>
-      <c r="B247" s="51"/>
+      <c r="B247" s="50"/>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
       <c r="E247" s="15"/>
@@ -7873,7 +7874,7 @@
       <c r="A248" s="12">
         <v>247</v>
       </c>
-      <c r="B248" s="51"/>
+      <c r="B248" s="50"/>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
       <c r="E248" s="15"/>
@@ -7882,7 +7883,7 @@
       <c r="A249" s="12">
         <v>248</v>
       </c>
-      <c r="B249" s="51"/>
+      <c r="B249" s="50"/>
       <c r="C249" s="14"/>
       <c r="D249" s="14"/>
       <c r="E249" s="15"/>
@@ -7891,7 +7892,7 @@
       <c r="A250" s="12">
         <v>249</v>
       </c>
-      <c r="B250" s="51"/>
+      <c r="B250" s="50"/>
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
       <c r="E250" s="15"/>
@@ -7900,7 +7901,7 @@
       <c r="A251" s="12">
         <v>250</v>
       </c>
-      <c r="B251" s="51"/>
+      <c r="B251" s="50"/>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
       <c r="E251" s="15"/>
@@ -7909,7 +7910,7 @@
       <c r="A252" s="12">
         <v>251</v>
       </c>
-      <c r="B252" s="51"/>
+      <c r="B252" s="50"/>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
       <c r="E252" s="15"/>
@@ -7918,7 +7919,7 @@
       <c r="A253" s="12">
         <v>252</v>
       </c>
-      <c r="B253" s="51"/>
+      <c r="B253" s="50"/>
       <c r="C253" s="14"/>
       <c r="D253" s="14"/>
       <c r="E253" s="15"/>
@@ -7927,7 +7928,7 @@
       <c r="A254" s="12">
         <v>253</v>
       </c>
-      <c r="B254" s="51"/>
+      <c r="B254" s="50"/>
       <c r="C254" s="14"/>
       <c r="D254" s="14"/>
       <c r="E254" s="15"/>
@@ -7936,7 +7937,7 @@
       <c r="A255" s="12">
         <v>254</v>
       </c>
-      <c r="B255" s="51"/>
+      <c r="B255" s="50"/>
       <c r="C255" s="14"/>
       <c r="D255" s="14"/>
       <c r="E255" s="15"/>
@@ -7945,7 +7946,7 @@
       <c r="A256" s="12">
         <v>255</v>
       </c>
-      <c r="B256" s="51"/>
+      <c r="B256" s="50"/>
       <c r="C256" s="14"/>
       <c r="D256" s="14"/>
       <c r="E256" s="15"/>
@@ -7954,7 +7955,7 @@
       <c r="A257" s="12">
         <v>256</v>
       </c>
-      <c r="B257" s="51"/>
+      <c r="B257" s="50"/>
       <c r="C257" s="14"/>
       <c r="D257" s="14"/>
       <c r="E257" s="15"/>
@@ -7963,7 +7964,7 @@
       <c r="A258" s="12">
         <v>257</v>
       </c>
-      <c r="B258" s="51"/>
+      <c r="B258" s="50"/>
       <c r="C258" s="14"/>
       <c r="D258" s="14"/>
       <c r="E258" s="15"/>
@@ -7972,7 +7973,7 @@
       <c r="A259" s="12">
         <v>258</v>
       </c>
-      <c r="B259" s="51"/>
+      <c r="B259" s="50"/>
       <c r="C259" s="14"/>
       <c r="D259" s="14"/>
       <c r="E259" s="15"/>
@@ -7981,7 +7982,7 @@
       <c r="A260" s="12">
         <v>259</v>
       </c>
-      <c r="B260" s="51"/>
+      <c r="B260" s="50"/>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
       <c r="E260" s="15"/>
@@ -7990,7 +7991,7 @@
       <c r="A261" s="12">
         <v>260</v>
       </c>
-      <c r="B261" s="51"/>
+      <c r="B261" s="50"/>
       <c r="C261" s="14"/>
       <c r="D261" s="14"/>
       <c r="E261" s="15"/>
@@ -7999,7 +8000,7 @@
       <c r="A262" s="12">
         <v>261</v>
       </c>
-      <c r="B262" s="51"/>
+      <c r="B262" s="50"/>
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
       <c r="E262" s="15"/>
@@ -8008,7 +8009,7 @@
       <c r="A263" s="12">
         <v>262</v>
       </c>
-      <c r="B263" s="51"/>
+      <c r="B263" s="50"/>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
       <c r="E263" s="15"/>
@@ -8017,7 +8018,7 @@
       <c r="A264" s="12">
         <v>263</v>
       </c>
-      <c r="B264" s="51"/>
+      <c r="B264" s="50"/>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
       <c r="E264" s="15"/>
@@ -8026,7 +8027,7 @@
       <c r="A265" s="12">
         <v>264</v>
       </c>
-      <c r="B265" s="51"/>
+      <c r="B265" s="50"/>
       <c r="C265" s="14"/>
       <c r="D265" s="14"/>
       <c r="E265" s="15"/>
@@ -8035,7 +8036,7 @@
       <c r="A266" s="12">
         <v>265</v>
       </c>
-      <c r="B266" s="51"/>
+      <c r="B266" s="50"/>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
       <c r="E266" s="15"/>
@@ -8044,7 +8045,7 @@
       <c r="A267" s="12">
         <v>266</v>
       </c>
-      <c r="B267" s="51"/>
+      <c r="B267" s="50"/>
       <c r="C267" s="14"/>
       <c r="D267" s="14"/>
       <c r="E267" s="15"/>
@@ -8053,7 +8054,7 @@
       <c r="A268" s="12">
         <v>267</v>
       </c>
-      <c r="B268" s="51"/>
+      <c r="B268" s="50"/>
       <c r="C268" s="14"/>
       <c r="D268" s="14"/>
       <c r="E268" s="15"/>
@@ -8062,7 +8063,7 @@
       <c r="A269" s="12">
         <v>268</v>
       </c>
-      <c r="B269" s="51"/>
+      <c r="B269" s="50"/>
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
       <c r="E269" s="15"/>
@@ -8071,7 +8072,7 @@
       <c r="A270" s="12">
         <v>269</v>
       </c>
-      <c r="B270" s="51"/>
+      <c r="B270" s="50"/>
       <c r="C270" s="14"/>
       <c r="D270" s="14"/>
       <c r="E270" s="15"/>
@@ -8080,7 +8081,7 @@
       <c r="A271" s="12">
         <v>270</v>
       </c>
-      <c r="B271" s="51"/>
+      <c r="B271" s="50"/>
       <c r="C271" s="14"/>
       <c r="D271" s="14"/>
       <c r="E271" s="15"/>
@@ -8089,7 +8090,7 @@
       <c r="A272" s="12">
         <v>271</v>
       </c>
-      <c r="B272" s="51"/>
+      <c r="B272" s="50"/>
       <c r="C272" s="14"/>
       <c r="D272" s="14"/>
       <c r="E272" s="15"/>
@@ -8098,7 +8099,7 @@
       <c r="A273" s="12">
         <v>272</v>
       </c>
-      <c r="B273" s="51"/>
+      <c r="B273" s="50"/>
       <c r="C273" s="14"/>
       <c r="D273" s="14"/>
       <c r="E273" s="15"/>
@@ -8107,7 +8108,7 @@
       <c r="A274" s="12">
         <v>273</v>
       </c>
-      <c r="B274" s="51"/>
+      <c r="B274" s="50"/>
       <c r="C274" s="14"/>
       <c r="D274" s="14"/>
       <c r="E274" s="15"/>
@@ -8116,7 +8117,7 @@
       <c r="A275" s="12">
         <v>274</v>
       </c>
-      <c r="B275" s="51"/>
+      <c r="B275" s="50"/>
       <c r="C275" s="14"/>
       <c r="D275" s="14"/>
       <c r="E275" s="15"/>
@@ -8125,7 +8126,7 @@
       <c r="A276" s="12">
         <v>275</v>
       </c>
-      <c r="B276" s="51"/>
+      <c r="B276" s="50"/>
       <c r="C276" s="14"/>
       <c r="D276" s="14"/>
       <c r="E276" s="15"/>
@@ -8134,7 +8135,7 @@
       <c r="A277" s="12">
         <v>276</v>
       </c>
-      <c r="B277" s="51"/>
+      <c r="B277" s="50"/>
       <c r="C277" s="14"/>
       <c r="D277" s="14"/>
       <c r="E277" s="15"/>
@@ -8143,7 +8144,7 @@
       <c r="A278" s="12">
         <v>277</v>
       </c>
-      <c r="B278" s="51"/>
+      <c r="B278" s="50"/>
       <c r="C278" s="14"/>
       <c r="D278" s="14"/>
       <c r="E278" s="15"/>
@@ -8152,7 +8153,7 @@
       <c r="A279" s="12">
         <v>278</v>
       </c>
-      <c r="B279" s="51"/>
+      <c r="B279" s="50"/>
       <c r="C279" s="14"/>
       <c r="D279" s="14"/>
       <c r="E279" s="15"/>
@@ -8161,7 +8162,7 @@
       <c r="A280" s="12">
         <v>279</v>
       </c>
-      <c r="B280" s="51"/>
+      <c r="B280" s="50"/>
       <c r="C280" s="14"/>
       <c r="D280" s="14"/>
       <c r="E280" s="15"/>
@@ -8170,7 +8171,7 @@
       <c r="A281" s="12">
         <v>280</v>
       </c>
-      <c r="B281" s="51"/>
+      <c r="B281" s="50"/>
       <c r="C281" s="14"/>
       <c r="D281" s="14"/>
       <c r="E281" s="15"/>
@@ -8179,7 +8180,7 @@
       <c r="A282" s="12">
         <v>281</v>
       </c>
-      <c r="B282" s="51"/>
+      <c r="B282" s="50"/>
       <c r="C282" s="14"/>
       <c r="D282" s="14"/>
       <c r="E282" s="15"/>
@@ -8188,7 +8189,7 @@
       <c r="A283" s="12">
         <v>282</v>
       </c>
-      <c r="B283" s="51"/>
+      <c r="B283" s="50"/>
       <c r="C283" s="14"/>
       <c r="D283" s="14"/>
       <c r="E283" s="15"/>
@@ -8197,7 +8198,7 @@
       <c r="A284" s="12">
         <v>283</v>
       </c>
-      <c r="B284" s="51"/>
+      <c r="B284" s="50"/>
       <c r="C284" s="14"/>
       <c r="D284" s="14"/>
       <c r="E284" s="15"/>
@@ -8206,7 +8207,7 @@
       <c r="A285" s="12">
         <v>284</v>
       </c>
-      <c r="B285" s="51"/>
+      <c r="B285" s="50"/>
       <c r="C285" s="14"/>
       <c r="D285" s="14"/>
       <c r="E285" s="15"/>
@@ -8215,7 +8216,7 @@
       <c r="A286" s="12">
         <v>285</v>
       </c>
-      <c r="B286" s="51"/>
+      <c r="B286" s="50"/>
       <c r="C286" s="14"/>
       <c r="D286" s="14"/>
       <c r="E286" s="15"/>
@@ -8224,7 +8225,7 @@
       <c r="A287" s="12">
         <v>286</v>
       </c>
-      <c r="B287" s="51"/>
+      <c r="B287" s="50"/>
       <c r="C287" s="14"/>
       <c r="D287" s="14"/>
       <c r="E287" s="15"/>
@@ -8233,7 +8234,7 @@
       <c r="A288" s="12">
         <v>287</v>
       </c>
-      <c r="B288" s="51"/>
+      <c r="B288" s="50"/>
       <c r="C288" s="14"/>
       <c r="D288" s="14"/>
       <c r="E288" s="15"/>
@@ -8242,7 +8243,7 @@
       <c r="A289" s="12">
         <v>288</v>
       </c>
-      <c r="B289" s="51"/>
+      <c r="B289" s="50"/>
       <c r="C289" s="14"/>
       <c r="D289" s="14"/>
       <c r="E289" s="15"/>
@@ -8251,7 +8252,7 @@
       <c r="A290" s="12">
         <v>289</v>
       </c>
-      <c r="B290" s="51"/>
+      <c r="B290" s="50"/>
       <c r="C290" s="14"/>
       <c r="D290" s="14"/>
       <c r="E290" s="15"/>
@@ -8260,7 +8261,7 @@
       <c r="A291" s="12">
         <v>290</v>
       </c>
-      <c r="B291" s="51"/>
+      <c r="B291" s="50"/>
       <c r="C291" s="14"/>
       <c r="D291" s="14"/>
       <c r="E291" s="15"/>
@@ -8269,7 +8270,7 @@
       <c r="A292" s="12">
         <v>291</v>
       </c>
-      <c r="B292" s="51"/>
+      <c r="B292" s="50"/>
       <c r="C292" s="14"/>
       <c r="D292" s="14"/>
       <c r="E292" s="15"/>
@@ -8278,7 +8279,7 @@
       <c r="A293" s="12">
         <v>292</v>
       </c>
-      <c r="B293" s="51"/>
+      <c r="B293" s="50"/>
       <c r="C293" s="14"/>
       <c r="D293" s="14"/>
       <c r="E293" s="15"/>
@@ -8287,7 +8288,7 @@
       <c r="A294" s="12">
         <v>293</v>
       </c>
-      <c r="B294" s="51"/>
+      <c r="B294" s="50"/>
       <c r="C294" s="14"/>
       <c r="D294" s="14"/>
       <c r="E294" s="15"/>
@@ -8296,7 +8297,7 @@
       <c r="A295" s="12">
         <v>294</v>
       </c>
-      <c r="B295" s="51"/>
+      <c r="B295" s="50"/>
       <c r="C295" s="14"/>
       <c r="D295" s="14"/>
       <c r="E295" s="15"/>
@@ -8305,7 +8306,7 @@
       <c r="A296" s="12">
         <v>295</v>
       </c>
-      <c r="B296" s="51"/>
+      <c r="B296" s="50"/>
       <c r="C296" s="14"/>
       <c r="D296" s="14"/>
       <c r="E296" s="15"/>
@@ -8314,7 +8315,7 @@
       <c r="A297" s="12">
         <v>296</v>
       </c>
-      <c r="B297" s="51"/>
+      <c r="B297" s="50"/>
       <c r="C297" s="14"/>
       <c r="D297" s="14"/>
       <c r="E297" s="15"/>
@@ -8323,7 +8324,7 @@
       <c r="A298" s="12">
         <v>297</v>
       </c>
-      <c r="B298" s="51"/>
+      <c r="B298" s="50"/>
       <c r="C298" s="14"/>
       <c r="D298" s="14"/>
       <c r="E298" s="15"/>
@@ -8332,7 +8333,7 @@
       <c r="A299" s="12">
         <v>298</v>
       </c>
-      <c r="B299" s="51"/>
+      <c r="B299" s="50"/>
       <c r="C299" s="14"/>
       <c r="D299" s="14"/>
       <c r="E299" s="15"/>
@@ -8341,7 +8342,7 @@
       <c r="A300" s="12">
         <v>299</v>
       </c>
-      <c r="B300" s="51"/>
+      <c r="B300" s="50"/>
       <c r="C300" s="14"/>
       <c r="D300" s="14"/>
       <c r="E300" s="15"/>
@@ -8350,7 +8351,7 @@
       <c r="A301" s="12">
         <v>300</v>
       </c>
-      <c r="B301" s="51"/>
+      <c r="B301" s="50"/>
       <c r="C301" s="14"/>
       <c r="D301" s="14"/>
       <c r="E301" s="15"/>
@@ -8359,7 +8360,7 @@
       <c r="A302" s="12">
         <v>301</v>
       </c>
-      <c r="B302" s="51"/>
+      <c r="B302" s="50"/>
       <c r="C302" s="14"/>
       <c r="D302" s="14"/>
       <c r="E302" s="15"/>
@@ -8368,7 +8369,7 @@
       <c r="A303" s="12">
         <v>302</v>
       </c>
-      <c r="B303" s="51"/>
+      <c r="B303" s="50"/>
       <c r="C303" s="14"/>
       <c r="D303" s="14"/>
       <c r="E303" s="15"/>
@@ -8377,7 +8378,7 @@
       <c r="A304" s="12">
         <v>303</v>
       </c>
-      <c r="B304" s="51"/>
+      <c r="B304" s="50"/>
       <c r="C304" s="14"/>
       <c r="D304" s="14"/>
       <c r="E304" s="15"/>
@@ -8386,7 +8387,7 @@
       <c r="A305" s="12">
         <v>304</v>
       </c>
-      <c r="B305" s="51"/>
+      <c r="B305" s="50"/>
       <c r="C305" s="14"/>
       <c r="D305" s="14"/>
       <c r="E305" s="15"/>
@@ -8395,7 +8396,7 @@
       <c r="A306" s="12">
         <v>305</v>
       </c>
-      <c r="B306" s="51"/>
+      <c r="B306" s="50"/>
       <c r="C306" s="14"/>
       <c r="D306" s="14"/>
       <c r="E306" s="15"/>
@@ -8404,7 +8405,7 @@
       <c r="A307" s="12">
         <v>306</v>
       </c>
-      <c r="B307" s="51"/>
+      <c r="B307" s="50"/>
       <c r="C307" s="14"/>
       <c r="D307" s="14"/>
       <c r="E307" s="15"/>
@@ -8413,7 +8414,7 @@
       <c r="A308" s="12">
         <v>307</v>
       </c>
-      <c r="B308" s="51"/>
+      <c r="B308" s="50"/>
       <c r="C308" s="14"/>
       <c r="D308" s="14"/>
       <c r="E308" s="15"/>
@@ -8422,7 +8423,7 @@
       <c r="A309" s="12">
         <v>308</v>
       </c>
-      <c r="B309" s="51"/>
+      <c r="B309" s="50"/>
       <c r="C309" s="14"/>
       <c r="D309" s="14"/>
       <c r="E309" s="15"/>
@@ -8431,7 +8432,7 @@
       <c r="A310" s="12">
         <v>309</v>
       </c>
-      <c r="B310" s="51"/>
+      <c r="B310" s="50"/>
       <c r="C310" s="14"/>
       <c r="D310" s="14"/>
       <c r="E310" s="15"/>
@@ -8440,7 +8441,7 @@
       <c r="A311" s="12">
         <v>310</v>
       </c>
-      <c r="B311" s="51"/>
+      <c r="B311" s="50"/>
       <c r="C311" s="14"/>
       <c r="D311" s="14"/>
       <c r="E311" s="15"/>
@@ -8449,7 +8450,7 @@
       <c r="A312" s="12">
         <v>311</v>
       </c>
-      <c r="B312" s="51"/>
+      <c r="B312" s="50"/>
       <c r="C312" s="14"/>
       <c r="D312" s="14"/>
       <c r="E312" s="15"/>
@@ -8458,7 +8459,7 @@
       <c r="A313" s="12">
         <v>312</v>
       </c>
-      <c r="B313" s="51"/>
+      <c r="B313" s="50"/>
       <c r="C313" s="14"/>
       <c r="D313" s="14"/>
       <c r="E313" s="15"/>
@@ -8467,7 +8468,7 @@
       <c r="A314" s="12">
         <v>313</v>
       </c>
-      <c r="B314" s="51"/>
+      <c r="B314" s="50"/>
       <c r="C314" s="14"/>
       <c r="D314" s="14"/>
       <c r="E314" s="15"/>
@@ -8476,7 +8477,7 @@
       <c r="A315" s="12">
         <v>314</v>
       </c>
-      <c r="B315" s="51"/>
+      <c r="B315" s="50"/>
       <c r="C315" s="14"/>
       <c r="D315" s="14"/>
       <c r="E315" s="15"/>
@@ -8485,7 +8486,7 @@
       <c r="A316" s="12">
         <v>315</v>
       </c>
-      <c r="B316" s="51"/>
+      <c r="B316" s="50"/>
       <c r="C316" s="14"/>
       <c r="D316" s="14"/>
       <c r="E316" s="15"/>
@@ -8494,7 +8495,7 @@
       <c r="A317" s="12">
         <v>316</v>
       </c>
-      <c r="B317" s="51"/>
+      <c r="B317" s="50"/>
       <c r="C317" s="14"/>
       <c r="D317" s="14"/>
       <c r="E317" s="15"/>
@@ -8503,7 +8504,7 @@
       <c r="A318" s="12">
         <v>317</v>
       </c>
-      <c r="B318" s="51"/>
+      <c r="B318" s="50"/>
       <c r="C318" s="14"/>
       <c r="D318" s="14"/>
       <c r="E318" s="15"/>
@@ -8512,7 +8513,7 @@
       <c r="A319" s="12">
         <v>318</v>
       </c>
-      <c r="B319" s="51"/>
+      <c r="B319" s="50"/>
       <c r="C319" s="14"/>
       <c r="D319" s="14"/>
       <c r="E319" s="15"/>
@@ -8521,7 +8522,7 @@
       <c r="A320" s="12">
         <v>319</v>
       </c>
-      <c r="B320" s="51"/>
+      <c r="B320" s="50"/>
       <c r="C320" s="14"/>
       <c r="D320" s="14"/>
       <c r="E320" s="15"/>
@@ -8530,7 +8531,7 @@
       <c r="A321" s="12">
         <v>320</v>
       </c>
-      <c r="B321" s="51"/>
+      <c r="B321" s="50"/>
       <c r="C321" s="14"/>
       <c r="D321" s="14"/>
       <c r="E321" s="15"/>
@@ -8539,7 +8540,7 @@
       <c r="A322" s="12">
         <v>321</v>
       </c>
-      <c r="B322" s="51"/>
+      <c r="B322" s="50"/>
       <c r="C322" s="14"/>
       <c r="D322" s="14"/>
       <c r="E322" s="15"/>
@@ -8548,7 +8549,7 @@
       <c r="A323" s="12">
         <v>322</v>
       </c>
-      <c r="B323" s="51"/>
+      <c r="B323" s="50"/>
       <c r="C323" s="14"/>
       <c r="D323" s="14"/>
       <c r="E323" s="15"/>
@@ -8557,7 +8558,7 @@
       <c r="A324" s="12">
         <v>323</v>
       </c>
-      <c r="B324" s="51"/>
+      <c r="B324" s="50"/>
       <c r="C324" s="14"/>
       <c r="D324" s="14"/>
       <c r="E324" s="15"/>
@@ -8566,7 +8567,7 @@
       <c r="A325" s="12">
         <v>324</v>
       </c>
-      <c r="B325" s="51"/>
+      <c r="B325" s="50"/>
       <c r="C325" s="14"/>
       <c r="D325" s="14"/>
       <c r="E325" s="15"/>
@@ -8575,7 +8576,7 @@
       <c r="A326" s="12">
         <v>325</v>
       </c>
-      <c r="B326" s="51"/>
+      <c r="B326" s="50"/>
       <c r="C326" s="14"/>
       <c r="D326" s="14"/>
       <c r="E326" s="15"/>
@@ -8584,7 +8585,7 @@
       <c r="A327" s="12">
         <v>326</v>
       </c>
-      <c r="B327" s="51"/>
+      <c r="B327" s="50"/>
       <c r="C327" s="14"/>
       <c r="D327" s="14"/>
       <c r="E327" s="15"/>
@@ -8593,7 +8594,7 @@
       <c r="A328" s="12">
         <v>327</v>
       </c>
-      <c r="B328" s="51"/>
+      <c r="B328" s="50"/>
       <c r="C328" s="14"/>
       <c r="D328" s="14"/>
       <c r="E328" s="15"/>
@@ -8602,7 +8603,7 @@
       <c r="A329" s="12">
         <v>328</v>
       </c>
-      <c r="B329" s="51"/>
+      <c r="B329" s="50"/>
       <c r="C329" s="14"/>
       <c r="D329" s="14"/>
       <c r="E329" s="15"/>
@@ -8611,7 +8612,7 @@
       <c r="A330" s="12">
         <v>329</v>
       </c>
-      <c r="B330" s="51"/>
+      <c r="B330" s="50"/>
       <c r="C330" s="14"/>
       <c r="D330" s="14"/>
       <c r="E330" s="15"/>
@@ -8620,7 +8621,7 @@
       <c r="A331" s="12">
         <v>330</v>
       </c>
-      <c r="B331" s="51"/>
+      <c r="B331" s="50"/>
       <c r="C331" s="14"/>
       <c r="D331" s="14"/>
       <c r="E331" s="15"/>
@@ -8629,7 +8630,7 @@
       <c r="A332" s="12">
         <v>331</v>
       </c>
-      <c r="B332" s="51"/>
+      <c r="B332" s="50"/>
       <c r="C332" s="14"/>
       <c r="D332" s="14"/>
       <c r="E332" s="15"/>
@@ -8638,7 +8639,7 @@
       <c r="A333" s="12">
         <v>332</v>
       </c>
-      <c r="B333" s="51"/>
+      <c r="B333" s="50"/>
       <c r="C333" s="14"/>
       <c r="D333" s="14"/>
       <c r="E333" s="15"/>
@@ -8647,7 +8648,7 @@
       <c r="A334" s="12">
         <v>333</v>
       </c>
-      <c r="B334" s="51"/>
+      <c r="B334" s="50"/>
       <c r="C334" s="14"/>
       <c r="D334" s="14"/>
       <c r="E334" s="15"/>
@@ -8656,7 +8657,7 @@
       <c r="A335" s="12">
         <v>334</v>
       </c>
-      <c r="B335" s="51"/>
+      <c r="B335" s="50"/>
       <c r="C335" s="14"/>
       <c r="D335" s="14"/>
       <c r="E335" s="15"/>
@@ -8665,7 +8666,7 @@
       <c r="A336" s="12">
         <v>335</v>
       </c>
-      <c r="B336" s="51"/>
+      <c r="B336" s="50"/>
       <c r="C336" s="14"/>
       <c r="D336" s="14"/>
       <c r="E336" s="15"/>
@@ -8674,7 +8675,7 @@
       <c r="A337" s="12">
         <v>336</v>
       </c>
-      <c r="B337" s="51"/>
+      <c r="B337" s="50"/>
       <c r="C337" s="14"/>
       <c r="D337" s="14"/>
       <c r="E337" s="15"/>
@@ -8683,7 +8684,7 @@
       <c r="A338" s="12">
         <v>337</v>
       </c>
-      <c r="B338" s="51"/>
+      <c r="B338" s="50"/>
       <c r="C338" s="14"/>
       <c r="D338" s="14"/>
       <c r="E338" s="15"/>
@@ -8692,7 +8693,7 @@
       <c r="A339" s="12">
         <v>338</v>
       </c>
-      <c r="B339" s="51"/>
+      <c r="B339" s="50"/>
       <c r="C339" s="14"/>
       <c r="D339" s="14"/>
       <c r="E339" s="15"/>
@@ -8701,7 +8702,7 @@
       <c r="A340" s="12">
         <v>339</v>
       </c>
-      <c r="B340" s="51"/>
+      <c r="B340" s="50"/>
       <c r="C340" s="14"/>
       <c r="D340" s="14"/>
       <c r="E340" s="15"/>
@@ -8710,7 +8711,7 @@
       <c r="A341" s="12">
         <v>340</v>
       </c>
-      <c r="B341" s="51"/>
+      <c r="B341" s="50"/>
       <c r="C341" s="14"/>
       <c r="D341" s="14"/>
       <c r="E341" s="15"/>
@@ -8719,7 +8720,7 @@
       <c r="A342" s="12">
         <v>341</v>
       </c>
-      <c r="B342" s="51"/>
+      <c r="B342" s="50"/>
       <c r="C342" s="14"/>
       <c r="D342" s="14"/>
       <c r="E342" s="15"/>
@@ -8728,7 +8729,7 @@
       <c r="A343" s="12">
         <v>342</v>
       </c>
-      <c r="B343" s="51"/>
+      <c r="B343" s="50"/>
       <c r="C343" s="14"/>
       <c r="D343" s="14"/>
       <c r="E343" s="15"/>
@@ -8737,7 +8738,7 @@
       <c r="A344" s="12">
         <v>343</v>
       </c>
-      <c r="B344" s="51"/>
+      <c r="B344" s="50"/>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
       <c r="E344" s="15"/>
@@ -8746,7 +8747,7 @@
       <c r="A345" s="12">
         <v>344</v>
       </c>
-      <c r="B345" s="51"/>
+      <c r="B345" s="50"/>
       <c r="C345" s="14"/>
       <c r="D345" s="14"/>
       <c r="E345" s="15"/>
@@ -8755,7 +8756,7 @@
       <c r="A346" s="12">
         <v>345</v>
       </c>
-      <c r="B346" s="51"/>
+      <c r="B346" s="50"/>
       <c r="C346" s="14"/>
       <c r="D346" s="14"/>
       <c r="E346" s="15"/>
@@ -8764,7 +8765,7 @@
       <c r="A347" s="12">
         <v>346</v>
       </c>
-      <c r="B347" s="51"/>
+      <c r="B347" s="50"/>
       <c r="C347" s="14"/>
       <c r="D347" s="14"/>
       <c r="E347" s="15"/>
@@ -8773,7 +8774,7 @@
       <c r="A348" s="12">
         <v>347</v>
       </c>
-      <c r="B348" s="51"/>
+      <c r="B348" s="50"/>
       <c r="C348" s="14"/>
       <c r="D348" s="14"/>
       <c r="E348" s="15"/>
@@ -8782,7 +8783,7 @@
       <c r="A349" s="12">
         <v>348</v>
       </c>
-      <c r="B349" s="51"/>
+      <c r="B349" s="50"/>
       <c r="C349" s="14"/>
       <c r="D349" s="14"/>
       <c r="E349" s="15"/>
@@ -8791,7 +8792,7 @@
       <c r="A350" s="12">
         <v>349</v>
       </c>
-      <c r="B350" s="51"/>
+      <c r="B350" s="50"/>
       <c r="C350" s="14"/>
       <c r="D350" s="14"/>
       <c r="E350" s="15"/>
@@ -8800,7 +8801,7 @@
       <c r="A351" s="12">
         <v>350</v>
       </c>
-      <c r="B351" s="51"/>
+      <c r="B351" s="50"/>
       <c r="C351" s="14"/>
       <c r="D351" s="14"/>
       <c r="E351" s="15"/>
@@ -8809,7 +8810,7 @@
       <c r="A352" s="12">
         <v>351</v>
       </c>
-      <c r="B352" s="51"/>
+      <c r="B352" s="50"/>
       <c r="C352" s="14"/>
       <c r="D352" s="14"/>
       <c r="E352" s="15"/>
@@ -8818,7 +8819,7 @@
       <c r="A353" s="12">
         <v>352</v>
       </c>
-      <c r="B353" s="51"/>
+      <c r="B353" s="50"/>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
       <c r="E353" s="15"/>
@@ -8827,7 +8828,7 @@
       <c r="A354" s="12">
         <v>353</v>
       </c>
-      <c r="B354" s="51"/>
+      <c r="B354" s="50"/>
       <c r="C354" s="14"/>
       <c r="D354" s="14"/>
       <c r="E354" s="15"/>
@@ -8836,7 +8837,7 @@
       <c r="A355" s="12">
         <v>354</v>
       </c>
-      <c r="B355" s="51"/>
+      <c r="B355" s="50"/>
       <c r="C355" s="14"/>
       <c r="D355" s="14"/>
       <c r="E355" s="15"/>
@@ -8845,7 +8846,7 @@
       <c r="A356" s="12">
         <v>355</v>
       </c>
-      <c r="B356" s="51"/>
+      <c r="B356" s="50"/>
       <c r="C356" s="14"/>
       <c r="D356" s="14"/>
       <c r="E356" s="15"/>
@@ -8854,7 +8855,7 @@
       <c r="A357" s="12">
         <v>356</v>
       </c>
-      <c r="B357" s="51"/>
+      <c r="B357" s="50"/>
       <c r="C357" s="14"/>
       <c r="D357" s="14"/>
       <c r="E357" s="15"/>
@@ -8863,7 +8864,7 @@
       <c r="A358" s="12">
         <v>357</v>
       </c>
-      <c r="B358" s="51"/>
+      <c r="B358" s="50"/>
       <c r="C358" s="14"/>
       <c r="D358" s="14"/>
       <c r="E358" s="15"/>
@@ -8872,7 +8873,7 @@
       <c r="A359" s="12">
         <v>358</v>
       </c>
-      <c r="B359" s="51"/>
+      <c r="B359" s="50"/>
       <c r="C359" s="14"/>
       <c r="D359" s="14"/>
       <c r="E359" s="15"/>
@@ -8881,7 +8882,7 @@
       <c r="A360" s="12">
         <v>359</v>
       </c>
-      <c r="B360" s="51"/>
+      <c r="B360" s="50"/>
       <c r="C360" s="14"/>
       <c r="D360" s="14"/>
       <c r="E360" s="15"/>
@@ -8890,7 +8891,7 @@
       <c r="A361" s="12">
         <v>360</v>
       </c>
-      <c r="B361" s="51"/>
+      <c r="B361" s="50"/>
       <c r="C361" s="14"/>
       <c r="D361" s="14"/>
       <c r="E361" s="15"/>
@@ -8899,7 +8900,7 @@
       <c r="A362" s="12">
         <v>361</v>
       </c>
-      <c r="B362" s="51"/>
+      <c r="B362" s="50"/>
       <c r="C362" s="14"/>
       <c r="D362" s="14"/>
       <c r="E362" s="15"/>
@@ -8908,7 +8909,7 @@
       <c r="A363" s="12">
         <v>362</v>
       </c>
-      <c r="B363" s="51"/>
+      <c r="B363" s="50"/>
       <c r="C363" s="14"/>
       <c r="D363" s="14"/>
       <c r="E363" s="15"/>
@@ -8917,7 +8918,7 @@
       <c r="A364" s="12">
         <v>363</v>
       </c>
-      <c r="B364" s="51"/>
+      <c r="B364" s="50"/>
       <c r="C364" s="14"/>
       <c r="D364" s="14"/>
       <c r="E364" s="15"/>
@@ -8926,7 +8927,7 @@
       <c r="A365" s="12">
         <v>364</v>
       </c>
-      <c r="B365" s="51"/>
+      <c r="B365" s="50"/>
       <c r="C365" s="14"/>
       <c r="D365" s="14"/>
       <c r="E365" s="15"/>
@@ -8935,7 +8936,7 @@
       <c r="A366" s="12">
         <v>365</v>
       </c>
-      <c r="B366" s="51"/>
+      <c r="B366" s="50"/>
       <c r="C366" s="14"/>
       <c r="D366" s="14"/>
       <c r="E366" s="15"/>
@@ -8944,7 +8945,7 @@
       <c r="A367" s="12">
         <v>366</v>
       </c>
-      <c r="B367" s="51"/>
+      <c r="B367" s="50"/>
       <c r="C367" s="14"/>
       <c r="D367" s="14"/>
       <c r="E367" s="15"/>
@@ -8953,7 +8954,7 @@
       <c r="A368" s="12">
         <v>367</v>
       </c>
-      <c r="B368" s="51"/>
+      <c r="B368" s="50"/>
       <c r="C368" s="14"/>
       <c r="D368" s="14"/>
       <c r="E368" s="15"/>
@@ -8962,7 +8963,7 @@
       <c r="A369" s="12">
         <v>368</v>
       </c>
-      <c r="B369" s="51"/>
+      <c r="B369" s="50"/>
       <c r="C369" s="14"/>
       <c r="D369" s="14"/>
       <c r="E369" s="15"/>
@@ -8971,7 +8972,7 @@
       <c r="A370" s="12">
         <v>369</v>
       </c>
-      <c r="B370" s="51"/>
+      <c r="B370" s="50"/>
       <c r="C370" s="14"/>
       <c r="D370" s="14"/>
       <c r="E370" s="15"/>
@@ -8980,7 +8981,7 @@
       <c r="A371" s="12">
         <v>370</v>
       </c>
-      <c r="B371" s="51"/>
+      <c r="B371" s="50"/>
       <c r="C371" s="14"/>
       <c r="D371" s="14"/>
       <c r="E371" s="15"/>
@@ -8989,7 +8990,7 @@
       <c r="A372" s="12">
         <v>371</v>
       </c>
-      <c r="B372" s="51"/>
+      <c r="B372" s="50"/>
       <c r="C372" s="14"/>
       <c r="D372" s="14"/>
       <c r="E372" s="15"/>
@@ -8998,7 +8999,7 @@
       <c r="A373" s="12">
         <v>372</v>
       </c>
-      <c r="B373" s="51"/>
+      <c r="B373" s="50"/>
       <c r="C373" s="14"/>
       <c r="D373" s="14"/>
       <c r="E373" s="15"/>
@@ -9007,7 +9008,7 @@
       <c r="A374" s="12">
         <v>373</v>
       </c>
-      <c r="B374" s="51"/>
+      <c r="B374" s="50"/>
       <c r="C374" s="14"/>
       <c r="D374" s="14"/>
       <c r="E374" s="15"/>
@@ -9016,7 +9017,7 @@
       <c r="A375" s="12">
         <v>374</v>
       </c>
-      <c r="B375" s="51"/>
+      <c r="B375" s="50"/>
       <c r="C375" s="14"/>
       <c r="D375" s="14"/>
       <c r="E375" s="15"/>
@@ -9025,7 +9026,7 @@
       <c r="A376" s="12">
         <v>375</v>
       </c>
-      <c r="B376" s="51"/>
+      <c r="B376" s="50"/>
       <c r="C376" s="14"/>
       <c r="D376" s="14"/>
       <c r="E376" s="15"/>
@@ -9034,7 +9035,7 @@
       <c r="A377" s="12">
         <v>376</v>
       </c>
-      <c r="B377" s="51"/>
+      <c r="B377" s="50"/>
       <c r="C377" s="14"/>
       <c r="D377" s="14"/>
       <c r="E377" s="15"/>
@@ -9043,7 +9044,7 @@
       <c r="A378" s="12">
         <v>377</v>
       </c>
-      <c r="B378" s="51"/>
+      <c r="B378" s="50"/>
       <c r="C378" s="14"/>
       <c r="D378" s="14"/>
       <c r="E378" s="15"/>
@@ -9052,7 +9053,7 @@
       <c r="A379" s="12">
         <v>378</v>
       </c>
-      <c r="B379" s="51"/>
+      <c r="B379" s="50"/>
       <c r="C379" s="14"/>
       <c r="D379" s="14"/>
       <c r="E379" s="15"/>
@@ -9061,7 +9062,7 @@
       <c r="A380" s="12">
         <v>379</v>
       </c>
-      <c r="B380" s="51"/>
+      <c r="B380" s="50"/>
       <c r="C380" s="14"/>
       <c r="D380" s="14"/>
       <c r="E380" s="15"/>
@@ -9070,7 +9071,7 @@
       <c r="A381" s="12">
         <v>380</v>
       </c>
-      <c r="B381" s="51"/>
+      <c r="B381" s="50"/>
       <c r="C381" s="14"/>
       <c r="D381" s="14"/>
       <c r="E381" s="15"/>
@@ -9079,7 +9080,7 @@
       <c r="A382" s="12">
         <v>381</v>
       </c>
-      <c r="B382" s="51"/>
+      <c r="B382" s="50"/>
       <c r="C382" s="14"/>
       <c r="D382" s="14"/>
       <c r="E382" s="15"/>
@@ -9088,7 +9089,7 @@
       <c r="A383" s="12">
         <v>382</v>
       </c>
-      <c r="B383" s="51"/>
+      <c r="B383" s="50"/>
       <c r="C383" s="14"/>
       <c r="D383" s="14"/>
       <c r="E383" s="15"/>
@@ -9097,7 +9098,7 @@
       <c r="A384" s="12">
         <v>383</v>
       </c>
-      <c r="B384" s="51"/>
+      <c r="B384" s="50"/>
       <c r="C384" s="14"/>
       <c r="D384" s="14"/>
       <c r="E384" s="15"/>
@@ -9106,7 +9107,7 @@
       <c r="A385" s="12">
         <v>384</v>
       </c>
-      <c r="B385" s="51"/>
+      <c r="B385" s="50"/>
       <c r="C385" s="14"/>
       <c r="D385" s="14"/>
       <c r="E385" s="15"/>
@@ -9115,7 +9116,7 @@
       <c r="A386" s="12">
         <v>385</v>
       </c>
-      <c r="B386" s="51"/>
+      <c r="B386" s="50"/>
       <c r="C386" s="14"/>
       <c r="D386" s="14"/>
       <c r="E386" s="15"/>
@@ -9124,7 +9125,7 @@
       <c r="A387" s="12">
         <v>386</v>
       </c>
-      <c r="B387" s="51"/>
+      <c r="B387" s="50"/>
       <c r="C387" s="14"/>
       <c r="D387" s="14"/>
       <c r="E387" s="15"/>
@@ -9133,7 +9134,7 @@
       <c r="A388" s="12">
         <v>387</v>
       </c>
-      <c r="B388" s="51"/>
+      <c r="B388" s="50"/>
       <c r="C388" s="14"/>
       <c r="D388" s="14"/>
       <c r="E388" s="15"/>
@@ -9142,7 +9143,7 @@
       <c r="A389" s="12">
         <v>388</v>
       </c>
-      <c r="B389" s="51"/>
+      <c r="B389" s="50"/>
       <c r="C389" s="14"/>
       <c r="D389" s="14"/>
       <c r="E389" s="15"/>
@@ -9151,7 +9152,7 @@
       <c r="A390" s="12">
         <v>389</v>
       </c>
-      <c r="B390" s="51"/>
+      <c r="B390" s="50"/>
       <c r="C390" s="14"/>
       <c r="D390" s="14"/>
       <c r="E390" s="15"/>
@@ -9160,7 +9161,7 @@
       <c r="A391" s="12">
         <v>390</v>
       </c>
-      <c r="B391" s="51"/>
+      <c r="B391" s="50"/>
       <c r="C391" s="14"/>
       <c r="D391" s="14"/>
       <c r="E391" s="15"/>
@@ -9169,7 +9170,7 @@
       <c r="A392" s="12">
         <v>391</v>
       </c>
-      <c r="B392" s="51"/>
+      <c r="B392" s="50"/>
       <c r="C392" s="14"/>
       <c r="D392" s="14"/>
       <c r="E392" s="15"/>
@@ -9178,7 +9179,7 @@
       <c r="A393" s="12">
         <v>392</v>
       </c>
-      <c r="B393" s="51"/>
+      <c r="B393" s="50"/>
       <c r="C393" s="14"/>
       <c r="D393" s="14"/>
       <c r="E393" s="15"/>
@@ -9187,7 +9188,7 @@
       <c r="A394" s="12">
         <v>393</v>
       </c>
-      <c r="B394" s="51"/>
+      <c r="B394" s="50"/>
       <c r="C394" s="14"/>
       <c r="D394" s="14"/>
       <c r="E394" s="15"/>
@@ -9196,7 +9197,7 @@
       <c r="A395" s="12">
         <v>394</v>
       </c>
-      <c r="B395" s="51"/>
+      <c r="B395" s="50"/>
       <c r="C395" s="14"/>
       <c r="D395" s="14"/>
       <c r="E395" s="15"/>
@@ -9205,7 +9206,7 @@
       <c r="A396" s="12">
         <v>395</v>
       </c>
-      <c r="B396" s="51"/>
+      <c r="B396" s="50"/>
       <c r="C396" s="14"/>
       <c r="D396" s="14"/>
       <c r="E396" s="15"/>
@@ -9214,7 +9215,7 @@
       <c r="A397" s="12">
         <v>396</v>
       </c>
-      <c r="B397" s="51"/>
+      <c r="B397" s="50"/>
       <c r="C397" s="14"/>
       <c r="D397" s="14"/>
       <c r="E397" s="15"/>
@@ -9223,7 +9224,7 @@
       <c r="A398" s="12">
         <v>397</v>
       </c>
-      <c r="B398" s="51"/>
+      <c r="B398" s="50"/>
       <c r="C398" s="14"/>
       <c r="D398" s="14"/>
       <c r="E398" s="15"/>
@@ -9232,7 +9233,7 @@
       <c r="A399" s="12">
         <v>398</v>
       </c>
-      <c r="B399" s="51"/>
+      <c r="B399" s="50"/>
       <c r="C399" s="14"/>
       <c r="D399" s="14"/>
       <c r="E399" s="15"/>
@@ -9241,7 +9242,7 @@
       <c r="A400" s="12">
         <v>399</v>
       </c>
-      <c r="B400" s="51"/>
+      <c r="B400" s="50"/>
       <c r="C400" s="14"/>
       <c r="D400" s="14"/>
       <c r="E400" s="15"/>
@@ -9250,7 +9251,7 @@
       <c r="A401" s="12">
         <v>400</v>
       </c>
-      <c r="B401" s="51"/>
+      <c r="B401" s="50"/>
       <c r="C401" s="14"/>
       <c r="D401" s="14"/>
       <c r="E401" s="15"/>
@@ -9259,7 +9260,7 @@
       <c r="A402" s="12">
         <v>401</v>
       </c>
-      <c r="B402" s="51"/>
+      <c r="B402" s="50"/>
       <c r="C402" s="14"/>
       <c r="D402" s="14"/>
       <c r="E402" s="15"/>
@@ -9268,7 +9269,7 @@
       <c r="A403" s="12">
         <v>402</v>
       </c>
-      <c r="B403" s="51"/>
+      <c r="B403" s="50"/>
       <c r="C403" s="14"/>
       <c r="D403" s="14"/>
       <c r="E403" s="15"/>
@@ -9277,7 +9278,7 @@
       <c r="A404" s="12">
         <v>403</v>
       </c>
-      <c r="B404" s="51"/>
+      <c r="B404" s="50"/>
       <c r="C404" s="14"/>
       <c r="D404" s="14"/>
       <c r="E404" s="15"/>
@@ -9286,7 +9287,7 @@
       <c r="A405" s="12">
         <v>404</v>
       </c>
-      <c r="B405" s="51"/>
+      <c r="B405" s="50"/>
       <c r="C405" s="14"/>
       <c r="D405" s="14"/>
       <c r="E405" s="15"/>
@@ -9295,7 +9296,7 @@
       <c r="A406" s="12">
         <v>405</v>
       </c>
-      <c r="B406" s="51"/>
+      <c r="B406" s="50"/>
       <c r="C406" s="14"/>
       <c r="D406" s="14"/>
       <c r="E406" s="15"/>
@@ -9304,7 +9305,7 @@
       <c r="A407" s="12">
         <v>406</v>
       </c>
-      <c r="B407" s="51"/>
+      <c r="B407" s="50"/>
       <c r="C407" s="14"/>
       <c r="D407" s="14"/>
       <c r="E407" s="15"/>
@@ -9313,7 +9314,7 @@
       <c r="A408" s="12">
         <v>407</v>
       </c>
-      <c r="B408" s="51"/>
+      <c r="B408" s="50"/>
       <c r="C408" s="14"/>
       <c r="D408" s="14"/>
       <c r="E408" s="15"/>
@@ -9322,7 +9323,7 @@
       <c r="A409" s="12">
         <v>408</v>
       </c>
-      <c r="B409" s="51"/>
+      <c r="B409" s="50"/>
       <c r="C409" s="14"/>
       <c r="D409" s="14"/>
       <c r="E409" s="15"/>
@@ -9331,7 +9332,7 @@
       <c r="A410" s="12">
         <v>409</v>
       </c>
-      <c r="B410" s="51"/>
+      <c r="B410" s="50"/>
       <c r="C410" s="14"/>
       <c r="D410" s="14"/>
       <c r="E410" s="15"/>
@@ -9340,7 +9341,7 @@
       <c r="A411" s="12">
         <v>410</v>
       </c>
-      <c r="B411" s="51"/>
+      <c r="B411" s="50"/>
       <c r="C411" s="14"/>
       <c r="D411" s="14"/>
       <c r="E411" s="15"/>
@@ -9349,7 +9350,7 @@
       <c r="A412" s="12">
         <v>411</v>
       </c>
-      <c r="B412" s="51"/>
+      <c r="B412" s="50"/>
       <c r="C412" s="14"/>
       <c r="D412" s="14"/>
       <c r="E412" s="15"/>
@@ -9358,7 +9359,7 @@
       <c r="A413" s="12">
         <v>412</v>
       </c>
-      <c r="B413" s="51"/>
+      <c r="B413" s="50"/>
       <c r="C413" s="14"/>
       <c r="D413" s="14"/>
       <c r="E413" s="15"/>
@@ -9367,7 +9368,7 @@
       <c r="A414" s="12">
         <v>413</v>
       </c>
-      <c r="B414" s="51"/>
+      <c r="B414" s="50"/>
       <c r="C414" s="14"/>
       <c r="D414" s="14"/>
       <c r="E414" s="15"/>
@@ -9376,7 +9377,7 @@
       <c r="A415" s="12">
         <v>414</v>
       </c>
-      <c r="B415" s="51"/>
+      <c r="B415" s="50"/>
       <c r="C415" s="14"/>
       <c r="D415" s="14"/>
       <c r="E415" s="15"/>
@@ -9385,7 +9386,7 @@
       <c r="A416" s="12">
         <v>415</v>
       </c>
-      <c r="B416" s="51"/>
+      <c r="B416" s="50"/>
       <c r="C416" s="14"/>
       <c r="D416" s="14"/>
       <c r="E416" s="15"/>
@@ -9394,7 +9395,7 @@
       <c r="A417" s="12">
         <v>416</v>
       </c>
-      <c r="B417" s="51"/>
+      <c r="B417" s="50"/>
       <c r="C417" s="14"/>
       <c r="D417" s="14"/>
       <c r="E417" s="15"/>
@@ -9403,7 +9404,7 @@
       <c r="A418" s="12">
         <v>417</v>
       </c>
-      <c r="B418" s="51"/>
+      <c r="B418" s="50"/>
       <c r="C418" s="14"/>
       <c r="D418" s="14"/>
       <c r="E418" s="15"/>
@@ -9412,7 +9413,7 @@
       <c r="A419" s="12">
         <v>418</v>
       </c>
-      <c r="B419" s="51"/>
+      <c r="B419" s="50"/>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
       <c r="E419" s="15"/>
@@ -9421,7 +9422,7 @@
       <c r="A420" s="12">
         <v>419</v>
       </c>
-      <c r="B420" s="51"/>
+      <c r="B420" s="50"/>
       <c r="C420" s="14"/>
       <c r="D420" s="14"/>
       <c r="E420" s="15"/>
@@ -9430,7 +9431,7 @@
       <c r="A421" s="12">
         <v>420</v>
       </c>
-      <c r="B421" s="51"/>
+      <c r="B421" s="50"/>
       <c r="C421" s="14"/>
       <c r="D421" s="14"/>
       <c r="E421" s="15"/>
@@ -9439,7 +9440,7 @@
       <c r="A422" s="12">
         <v>421</v>
       </c>
-      <c r="B422" s="51"/>
+      <c r="B422" s="50"/>
       <c r="C422" s="14"/>
       <c r="D422" s="14"/>
       <c r="E422" s="15"/>
@@ -9448,7 +9449,7 @@
       <c r="A423" s="12">
         <v>422</v>
       </c>
-      <c r="B423" s="51"/>
+      <c r="B423" s="50"/>
       <c r="C423" s="14"/>
       <c r="D423" s="14"/>
       <c r="E423" s="15"/>
@@ -9457,7 +9458,7 @@
       <c r="A424" s="12">
         <v>423</v>
       </c>
-      <c r="B424" s="51"/>
+      <c r="B424" s="50"/>
       <c r="C424" s="14"/>
       <c r="D424" s="14"/>
       <c r="E424" s="15"/>
@@ -9466,7 +9467,7 @@
       <c r="A425" s="12">
         <v>424</v>
       </c>
-      <c r="B425" s="51"/>
+      <c r="B425" s="50"/>
       <c r="C425" s="14"/>
       <c r="D425" s="14"/>
       <c r="E425" s="15"/>
@@ -9475,7 +9476,7 @@
       <c r="A426" s="12">
         <v>425</v>
       </c>
-      <c r="B426" s="51"/>
+      <c r="B426" s="50"/>
       <c r="C426" s="14"/>
       <c r="D426" s="14"/>
       <c r="E426" s="15"/>
@@ -9484,7 +9485,7 @@
       <c r="A427" s="12">
         <v>426</v>
       </c>
-      <c r="B427" s="51"/>
+      <c r="B427" s="50"/>
       <c r="C427" s="14"/>
       <c r="D427" s="14"/>
       <c r="E427" s="15"/>
@@ -9493,7 +9494,7 @@
       <c r="A428" s="12">
         <v>427</v>
       </c>
-      <c r="B428" s="51"/>
+      <c r="B428" s="50"/>
       <c r="C428" s="14"/>
       <c r="D428" s="14"/>
       <c r="E428" s="15"/>
@@ -9502,7 +9503,7 @@
       <c r="A429" s="12">
         <v>428</v>
       </c>
-      <c r="B429" s="51"/>
+      <c r="B429" s="50"/>
       <c r="C429" s="14"/>
       <c r="D429" s="14"/>
       <c r="E429" s="15"/>
@@ -9511,7 +9512,7 @@
       <c r="A430" s="12">
         <v>429</v>
       </c>
-      <c r="B430" s="51"/>
+      <c r="B430" s="50"/>
       <c r="C430" s="14"/>
       <c r="D430" s="14"/>
       <c r="E430" s="15"/>
@@ -9520,7 +9521,7 @@
       <c r="A431" s="12">
         <v>430</v>
       </c>
-      <c r="B431" s="51"/>
+      <c r="B431" s="50"/>
       <c r="C431" s="14"/>
       <c r="D431" s="14"/>
       <c r="E431" s="15"/>
@@ -9529,7 +9530,7 @@
       <c r="A432" s="12">
         <v>431</v>
       </c>
-      <c r="B432" s="51"/>
+      <c r="B432" s="50"/>
       <c r="C432" s="14"/>
       <c r="D432" s="14"/>
       <c r="E432" s="15"/>
@@ -9538,7 +9539,7 @@
       <c r="A433" s="12">
         <v>432</v>
       </c>
-      <c r="B433" s="51"/>
+      <c r="B433" s="50"/>
       <c r="C433" s="14"/>
       <c r="D433" s="14"/>
       <c r="E433" s="15"/>
@@ -9547,7 +9548,7 @@
       <c r="A434" s="12">
         <v>433</v>
       </c>
-      <c r="B434" s="51"/>
+      <c r="B434" s="50"/>
       <c r="C434" s="14"/>
       <c r="D434" s="14"/>
       <c r="E434" s="15"/>
@@ -9556,7 +9557,7 @@
       <c r="A435" s="12">
         <v>434</v>
       </c>
-      <c r="B435" s="51"/>
+      <c r="B435" s="50"/>
       <c r="C435" s="14"/>
       <c r="D435" s="14"/>
       <c r="E435" s="15"/>
@@ -9565,7 +9566,7 @@
       <c r="A436" s="12">
         <v>435</v>
       </c>
-      <c r="B436" s="51"/>
+      <c r="B436" s="50"/>
       <c r="C436" s="14"/>
       <c r="D436" s="14"/>
       <c r="E436" s="15"/>
@@ -9574,7 +9575,7 @@
       <c r="A437" s="12">
         <v>436</v>
       </c>
-      <c r="B437" s="51"/>
+      <c r="B437" s="50"/>
       <c r="C437" s="14"/>
       <c r="D437" s="14"/>
       <c r="E437" s="15"/>
@@ -9583,7 +9584,7 @@
       <c r="A438" s="12">
         <v>437</v>
       </c>
-      <c r="B438" s="51"/>
+      <c r="B438" s="50"/>
       <c r="C438" s="14"/>
       <c r="D438" s="14"/>
       <c r="E438" s="15"/>
@@ -9592,7 +9593,7 @@
       <c r="A439" s="12">
         <v>438</v>
       </c>
-      <c r="B439" s="51"/>
+      <c r="B439" s="50"/>
       <c r="C439" s="14"/>
       <c r="D439" s="14"/>
       <c r="E439" s="15"/>
@@ -9601,7 +9602,7 @@
       <c r="A440" s="12">
         <v>439</v>
       </c>
-      <c r="B440" s="51"/>
+      <c r="B440" s="50"/>
       <c r="C440" s="14"/>
       <c r="D440" s="14"/>
       <c r="E440" s="15"/>
@@ -9610,7 +9611,7 @@
       <c r="A441" s="12">
         <v>440</v>
       </c>
-      <c r="B441" s="51"/>
+      <c r="B441" s="50"/>
       <c r="C441" s="14"/>
       <c r="D441" s="14"/>
       <c r="E441" s="15"/>
@@ -9619,7 +9620,7 @@
       <c r="A442" s="12">
         <v>441</v>
       </c>
-      <c r="B442" s="51"/>
+      <c r="B442" s="50"/>
       <c r="C442" s="14"/>
       <c r="D442" s="14"/>
       <c r="E442" s="15"/>
@@ -9628,7 +9629,7 @@
       <c r="A443" s="12">
         <v>442</v>
       </c>
-      <c r="B443" s="51"/>
+      <c r="B443" s="50"/>
       <c r="C443" s="14"/>
       <c r="D443" s="14"/>
       <c r="E443" s="15"/>
@@ -9637,7 +9638,7 @@
       <c r="A444" s="12">
         <v>443</v>
       </c>
-      <c r="B444" s="51"/>
+      <c r="B444" s="50"/>
       <c r="C444" s="14"/>
       <c r="D444" s="14"/>
       <c r="E444" s="15"/>
@@ -9646,7 +9647,7 @@
       <c r="A445" s="12">
         <v>444</v>
       </c>
-      <c r="B445" s="51"/>
+      <c r="B445" s="50"/>
       <c r="C445" s="14"/>
       <c r="D445" s="14"/>
       <c r="E445" s="15"/>
@@ -9655,7 +9656,7 @@
       <c r="A446" s="12">
         <v>445</v>
       </c>
-      <c r="B446" s="51"/>
+      <c r="B446" s="50"/>
       <c r="C446" s="14"/>
       <c r="D446" s="14"/>
       <c r="E446" s="15"/>
@@ -9664,7 +9665,7 @@
       <c r="A447" s="12">
         <v>446</v>
       </c>
-      <c r="B447" s="51"/>
+      <c r="B447" s="50"/>
       <c r="C447" s="14"/>
       <c r="D447" s="14"/>
       <c r="E447" s="15"/>
@@ -9673,7 +9674,7 @@
       <c r="A448" s="12">
         <v>447</v>
       </c>
-      <c r="B448" s="51"/>
+      <c r="B448" s="50"/>
       <c r="C448" s="14"/>
       <c r="D448" s="14"/>
       <c r="E448" s="15"/>
@@ -9682,7 +9683,7 @@
       <c r="A449" s="12">
         <v>448</v>
       </c>
-      <c r="B449" s="51"/>
+      <c r="B449" s="50"/>
       <c r="C449" s="14"/>
       <c r="D449" s="14"/>
       <c r="E449" s="15"/>
@@ -9691,7 +9692,7 @@
       <c r="A450" s="12">
         <v>449</v>
       </c>
-      <c r="B450" s="51"/>
+      <c r="B450" s="50"/>
       <c r="C450" s="14"/>
       <c r="D450" s="14"/>
       <c r="E450" s="15"/>
@@ -9700,7 +9701,7 @@
       <c r="A451" s="12">
         <v>450</v>
       </c>
-      <c r="B451" s="51"/>
+      <c r="B451" s="50"/>
       <c r="C451" s="14"/>
       <c r="D451" s="14"/>
       <c r="E451" s="15"/>
@@ -9709,7 +9710,7 @@
       <c r="A452" s="12">
         <v>451</v>
       </c>
-      <c r="B452" s="51"/>
+      <c r="B452" s="50"/>
       <c r="C452" s="14"/>
       <c r="D452" s="14"/>
       <c r="E452" s="15"/>
@@ -9718,7 +9719,7 @@
       <c r="A453" s="12">
         <v>452</v>
       </c>
-      <c r="B453" s="51"/>
+      <c r="B453" s="50"/>
       <c r="C453" s="14"/>
       <c r="D453" s="14"/>
       <c r="E453" s="15"/>
@@ -9727,7 +9728,7 @@
       <c r="A454" s="12">
         <v>453</v>
       </c>
-      <c r="B454" s="51"/>
+      <c r="B454" s="50"/>
       <c r="C454" s="14"/>
       <c r="D454" s="14"/>
       <c r="E454" s="15"/>
@@ -9736,7 +9737,7 @@
       <c r="A455" s="12">
         <v>454</v>
       </c>
-      <c r="B455" s="51"/>
+      <c r="B455" s="50"/>
       <c r="C455" s="14"/>
       <c r="D455" s="14"/>
       <c r="E455" s="15"/>
@@ -9745,7 +9746,7 @@
       <c r="A456" s="12">
         <v>455</v>
       </c>
-      <c r="B456" s="51"/>
+      <c r="B456" s="50"/>
       <c r="C456" s="14"/>
       <c r="D456" s="14"/>
       <c r="E456" s="15"/>
@@ -9754,7 +9755,7 @@
       <c r="A457" s="12">
         <v>456</v>
       </c>
-      <c r="B457" s="51"/>
+      <c r="B457" s="50"/>
       <c r="C457" s="14"/>
       <c r="D457" s="14"/>
       <c r="E457" s="15"/>
@@ -9763,7 +9764,7 @@
       <c r="A458" s="12">
         <v>457</v>
       </c>
-      <c r="B458" s="51"/>
+      <c r="B458" s="50"/>
       <c r="C458" s="14"/>
       <c r="D458" s="14"/>
       <c r="E458" s="15"/>
@@ -9772,7 +9773,7 @@
       <c r="A459" s="12">
         <v>458</v>
       </c>
-      <c r="B459" s="51"/>
+      <c r="B459" s="50"/>
       <c r="C459" s="14"/>
       <c r="D459" s="14"/>
       <c r="E459" s="15"/>
@@ -9781,7 +9782,7 @@
       <c r="A460" s="12">
         <v>459</v>
       </c>
-      <c r="B460" s="51"/>
+      <c r="B460" s="50"/>
       <c r="C460" s="14"/>
       <c r="D460" s="14"/>
       <c r="E460" s="15"/>
@@ -9790,7 +9791,7 @@
       <c r="A461" s="12">
         <v>460</v>
       </c>
-      <c r="B461" s="51"/>
+      <c r="B461" s="50"/>
       <c r="C461" s="14"/>
       <c r="D461" s="14"/>
       <c r="E461" s="15"/>
@@ -9799,7 +9800,7 @@
       <c r="A462" s="12">
         <v>461</v>
       </c>
-      <c r="B462" s="51"/>
+      <c r="B462" s="50"/>
       <c r="C462" s="14"/>
       <c r="D462" s="14"/>
       <c r="E462" s="15"/>
@@ -9808,7 +9809,7 @@
       <c r="A463" s="12">
         <v>462</v>
       </c>
-      <c r="B463" s="51"/>
+      <c r="B463" s="50"/>
       <c r="C463" s="14"/>
       <c r="D463" s="14"/>
       <c r="E463" s="15"/>
@@ -9817,7 +9818,7 @@
       <c r="A464" s="12">
         <v>463</v>
       </c>
-      <c r="B464" s="51"/>
+      <c r="B464" s="50"/>
       <c r="C464" s="14"/>
       <c r="D464" s="14"/>
       <c r="E464" s="15"/>
@@ -9826,7 +9827,7 @@
       <c r="A465" s="12">
         <v>464</v>
       </c>
-      <c r="B465" s="51"/>
+      <c r="B465" s="50"/>
       <c r="C465" s="14"/>
       <c r="D465" s="14"/>
       <c r="E465" s="15"/>
@@ -9835,7 +9836,7 @@
       <c r="A466" s="12">
         <v>465</v>
       </c>
-      <c r="B466" s="51"/>
+      <c r="B466" s="50"/>
       <c r="C466" s="14"/>
       <c r="D466" s="14"/>
       <c r="E466" s="15"/>
@@ -9844,7 +9845,7 @@
       <c r="A467" s="12">
         <v>466</v>
       </c>
-      <c r="B467" s="51"/>
+      <c r="B467" s="50"/>
       <c r="C467" s="14"/>
       <c r="D467" s="14"/>
       <c r="E467" s="15"/>
@@ -9853,7 +9854,7 @@
       <c r="A468" s="12">
         <v>467</v>
       </c>
-      <c r="B468" s="51"/>
+      <c r="B468" s="50"/>
       <c r="C468" s="14"/>
       <c r="D468" s="14"/>
       <c r="E468" s="15"/>
@@ -9862,7 +9863,7 @@
       <c r="A469" s="12">
         <v>468</v>
       </c>
-      <c r="B469" s="51"/>
+      <c r="B469" s="50"/>
       <c r="C469" s="14"/>
       <c r="D469" s="14"/>
       <c r="E469" s="15"/>
@@ -9871,7 +9872,7 @@
       <c r="A470" s="12">
         <v>469</v>
       </c>
-      <c r="B470" s="51"/>
+      <c r="B470" s="50"/>
       <c r="C470" s="14"/>
       <c r="D470" s="14"/>
       <c r="E470" s="15"/>
@@ -9880,7 +9881,7 @@
       <c r="A471" s="12">
         <v>470</v>
       </c>
-      <c r="B471" s="51"/>
+      <c r="B471" s="50"/>
       <c r="C471" s="14"/>
       <c r="D471" s="14"/>
       <c r="E471" s="15"/>
@@ -9889,7 +9890,7 @@
       <c r="A472" s="12">
         <v>471</v>
       </c>
-      <c r="B472" s="51"/>
+      <c r="B472" s="50"/>
       <c r="C472" s="14"/>
       <c r="D472" s="14"/>
       <c r="E472" s="15"/>
@@ -9898,7 +9899,7 @@
       <c r="A473" s="12">
         <v>472</v>
       </c>
-      <c r="B473" s="51"/>
+      <c r="B473" s="50"/>
       <c r="C473" s="14"/>
       <c r="D473" s="14"/>
       <c r="E473" s="15"/>
@@ -9907,7 +9908,7 @@
       <c r="A474" s="12">
         <v>473</v>
       </c>
-      <c r="B474" s="51"/>
+      <c r="B474" s="50"/>
       <c r="C474" s="14"/>
       <c r="D474" s="14"/>
       <c r="E474" s="15"/>
@@ -9916,7 +9917,7 @@
       <c r="A475" s="12">
         <v>474</v>
       </c>
-      <c r="B475" s="51"/>
+      <c r="B475" s="50"/>
       <c r="C475" s="14"/>
       <c r="D475" s="14"/>
       <c r="E475" s="15"/>
@@ -9925,7 +9926,7 @@
       <c r="A476" s="12">
         <v>475</v>
       </c>
-      <c r="B476" s="51"/>
+      <c r="B476" s="50"/>
       <c r="C476" s="14"/>
       <c r="D476" s="14"/>
       <c r="E476" s="15"/>
@@ -9934,7 +9935,7 @@
       <c r="A477" s="12">
         <v>476</v>
       </c>
-      <c r="B477" s="51"/>
+      <c r="B477" s="50"/>
       <c r="C477" s="14"/>
       <c r="D477" s="14"/>
       <c r="E477" s="15"/>
@@ -9943,7 +9944,7 @@
       <c r="A478" s="12">
         <v>477</v>
       </c>
-      <c r="B478" s="51"/>
+      <c r="B478" s="50"/>
       <c r="C478" s="14"/>
       <c r="D478" s="14"/>
       <c r="E478" s="15"/>
@@ -9952,7 +9953,7 @@
       <c r="A479" s="12">
         <v>478</v>
       </c>
-      <c r="B479" s="51"/>
+      <c r="B479" s="50"/>
       <c r="C479" s="14"/>
       <c r="D479" s="14"/>
       <c r="E479" s="15"/>
@@ -9961,7 +9962,7 @@
       <c r="A480" s="12">
         <v>479</v>
       </c>
-      <c r="B480" s="51"/>
+      <c r="B480" s="50"/>
       <c r="C480" s="14"/>
       <c r="D480" s="14"/>
       <c r="E480" s="15"/>
@@ -9970,7 +9971,7 @@
       <c r="A481" s="12">
         <v>480</v>
       </c>
-      <c r="B481" s="51"/>
+      <c r="B481" s="50"/>
       <c r="C481" s="14"/>
       <c r="D481" s="14"/>
       <c r="E481" s="15"/>
@@ -9979,7 +9980,7 @@
       <c r="A482" s="12">
         <v>481</v>
       </c>
-      <c r="B482" s="51"/>
+      <c r="B482" s="50"/>
       <c r="C482" s="14"/>
       <c r="D482" s="14"/>
       <c r="E482" s="15"/>
@@ -9988,7 +9989,7 @@
       <c r="A483" s="12">
         <v>482</v>
       </c>
-      <c r="B483" s="51"/>
+      <c r="B483" s="50"/>
       <c r="C483" s="14"/>
       <c r="D483" s="14"/>
       <c r="E483" s="15"/>
@@ -9997,7 +9998,7 @@
       <c r="A484" s="12">
         <v>483</v>
       </c>
-      <c r="B484" s="51"/>
+      <c r="B484" s="50"/>
       <c r="C484" s="14"/>
       <c r="D484" s="14"/>
       <c r="E484" s="15"/>
@@ -10006,7 +10007,7 @@
       <c r="A485" s="12">
         <v>484</v>
       </c>
-      <c r="B485" s="51"/>
+      <c r="B485" s="50"/>
       <c r="C485" s="14"/>
       <c r="D485" s="14"/>
       <c r="E485" s="15"/>
@@ -10015,7 +10016,7 @@
       <c r="A486" s="12">
         <v>485</v>
       </c>
-      <c r="B486" s="51"/>
+      <c r="B486" s="50"/>
       <c r="C486" s="14"/>
       <c r="D486" s="14"/>
       <c r="E486" s="15"/>
@@ -10024,7 +10025,7 @@
       <c r="A487" s="12">
         <v>486</v>
       </c>
-      <c r="B487" s="51"/>
+      <c r="B487" s="50"/>
       <c r="C487" s="14"/>
       <c r="D487" s="14"/>
       <c r="E487" s="15"/>
@@ -10033,7 +10034,7 @@
       <c r="A488" s="12">
         <v>487</v>
       </c>
-      <c r="B488" s="51"/>
+      <c r="B488" s="50"/>
       <c r="C488" s="14"/>
       <c r="D488" s="14"/>
       <c r="E488" s="15"/>
@@ -10042,7 +10043,7 @@
       <c r="A489" s="12">
         <v>488</v>
       </c>
-      <c r="B489" s="51"/>
+      <c r="B489" s="50"/>
       <c r="C489" s="14"/>
       <c r="D489" s="14"/>
       <c r="E489" s="15"/>
@@ -10051,7 +10052,7 @@
       <c r="A490" s="12">
         <v>489</v>
       </c>
-      <c r="B490" s="51"/>
+      <c r="B490" s="50"/>
       <c r="C490" s="14"/>
       <c r="D490" s="14"/>
       <c r="E490" s="15"/>
@@ -10060,7 +10061,7 @@
       <c r="A491" s="12">
         <v>490</v>
       </c>
-      <c r="B491" s="51"/>
+      <c r="B491" s="50"/>
       <c r="C491" s="14"/>
       <c r="D491" s="14"/>
       <c r="E491" s="15"/>
@@ -10069,7 +10070,7 @@
       <c r="A492" s="12">
         <v>491</v>
       </c>
-      <c r="B492" s="51"/>
+      <c r="B492" s="50"/>
       <c r="C492" s="14"/>
       <c r="D492" s="14"/>
       <c r="E492" s="15"/>
@@ -10078,7 +10079,7 @@
       <c r="A493" s="12">
         <v>492</v>
       </c>
-      <c r="B493" s="51"/>
+      <c r="B493" s="50"/>
       <c r="C493" s="14"/>
       <c r="D493" s="14"/>
       <c r="E493" s="15"/>
@@ -10087,7 +10088,7 @@
       <c r="A494" s="12">
         <v>493</v>
       </c>
-      <c r="B494" s="51"/>
+      <c r="B494" s="50"/>
       <c r="C494" s="14"/>
       <c r="D494" s="14"/>
       <c r="E494" s="15"/>
@@ -10096,7 +10097,7 @@
       <c r="A495" s="12">
         <v>494</v>
       </c>
-      <c r="B495" s="51"/>
+      <c r="B495" s="50"/>
       <c r="C495" s="14"/>
       <c r="D495" s="14"/>
       <c r="E495" s="15"/>
@@ -10105,7 +10106,7 @@
       <c r="A496" s="12">
         <v>495</v>
       </c>
-      <c r="B496" s="51"/>
+      <c r="B496" s="50"/>
       <c r="C496" s="14"/>
       <c r="D496" s="14"/>
       <c r="E496" s="15"/>
@@ -10114,7 +10115,7 @@
       <c r="A497" s="12">
         <v>496</v>
       </c>
-      <c r="B497" s="51"/>
+      <c r="B497" s="50"/>
       <c r="C497" s="14"/>
       <c r="D497" s="14"/>
       <c r="E497" s="15"/>
@@ -10123,7 +10124,7 @@
       <c r="A498" s="12">
         <v>497</v>
       </c>
-      <c r="B498" s="51"/>
+      <c r="B498" s="50"/>
       <c r="C498" s="14"/>
       <c r="D498" s="14"/>
       <c r="E498" s="15"/>
@@ -10132,7 +10133,7 @@
       <c r="A499" s="12">
         <v>498</v>
       </c>
-      <c r="B499" s="51"/>
+      <c r="B499" s="50"/>
       <c r="C499" s="14"/>
       <c r="D499" s="14"/>
       <c r="E499" s="15"/>
@@ -10141,7 +10142,7 @@
       <c r="A500" s="12">
         <v>499</v>
       </c>
-      <c r="B500" s="51"/>
+      <c r="B500" s="50"/>
       <c r="C500" s="14"/>
       <c r="D500" s="14"/>
       <c r="E500" s="15"/>
@@ -34030,120 +34031,120 @@
       <c r="A1" s="38" t="s">
         <v>820</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>829</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>822</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>830</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" ht="25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>823</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>814</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>816</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>819</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>828</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>818</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>812</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>813</v>
       </c>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>831</v>
       </c>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" ht="25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>821</v>
       </c>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>817</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>815</v>
       </c>
       <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="45"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="45"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="45"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="45"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2">

--- a/public/templates/SmallPelagicLandingSite.template.xlsx
+++ b/public/templates/SmallPelagicLandingSite.template.xlsx
@@ -2472,21 +2472,9 @@
     <t>Pantai Jasi</t>
   </si>
   <si>
-    <t xml:space="preserve">Banjar Pengalon </t>
-  </si>
-  <si>
     <t>Tanah Ampo</t>
   </si>
   <si>
-    <t xml:space="preserve">Bunutun </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seraya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kusamba </t>
-  </si>
-  <si>
     <t>Candidasa</t>
   </si>
   <si>
@@ -2514,12 +2502,6 @@
     <t>No. vessels</t>
   </si>
   <si>
-    <t xml:space="preserve">Jemelut </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amed </t>
-  </si>
-  <si>
     <t>Angantelo</t>
   </si>
   <si>
@@ -2566,6 +2548,24 @@
   </si>
   <si>
     <t>Wave</t>
+  </si>
+  <si>
+    <t>Seraya</t>
+  </si>
+  <si>
+    <t>Amed</t>
+  </si>
+  <si>
+    <t>Banjar Pengalon</t>
+  </si>
+  <si>
+    <t>Bunutun</t>
+  </si>
+  <si>
+    <t>Jemelut</t>
+  </si>
+  <si>
+    <t>Kusamba</t>
   </si>
 </sst>
 </file>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="6" spans="1:3" s="33" customFormat="1" ht="28" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="34"/>
@@ -4008,10 +4008,10 @@
         <v>34</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>13</v>
@@ -4020,7 +4020,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>17</v>
@@ -4035,10 +4035,10 @@
         <v>23</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>805</v>
@@ -5543,7 +5543,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>32</v>
@@ -5552,7 +5552,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F1" s="7"/>
     </row>
@@ -33905,52 +33905,52 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="30" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="30" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="30" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="30" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="30" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="30" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="30" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="30" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="30" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="30" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -34018,7 +34018,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -34029,61 +34029,61 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="38" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="44" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="44" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="44" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" ht="25">
       <c r="A5" s="47" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="44" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="45" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="44" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="45" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="45" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="B10" s="7"/>
     </row>
@@ -34101,25 +34101,25 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="45" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" ht="25">
       <c r="A14" s="46" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="45" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="44" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B16" s="7"/>
     </row>

--- a/public/templates/SmallPelagicLandingSite.template.xlsx
+++ b/public/templates/SmallPelagicLandingSite.template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -3844,7 +3844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -33888,7 +33888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
@@ -34018,7 +34018,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -34151,7 +34151,7 @@
       <c r="B23" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <sortState ref="A2:A16">
     <sortCondition ref="A2"/>
   </sortState>

--- a/public/templates/SmallPelagicLandingSite.template.xlsx
+++ b/public/templates/SmallPelagicLandingSite.template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="4760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,14 @@
     <sheet name="Fishery Codes" sheetId="8" r:id="rId8"/>
     <sheet name="Desa Codes" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="Desas">'Desa Codes'!$A$2:$A$16</definedName>
+    <definedName name="Fisheries">'Fishery Codes'!$A$2:$A$3</definedName>
+    <definedName name="Gears">'Gear Codes'!$A$2:$A$62</definedName>
+    <definedName name="Graticules">'Graticule Codes'!$A$2:$A$11</definedName>
+    <definedName name="Species">'Species Codes'!$A$2:$A$139</definedName>
+    <definedName name="Vessels">'Form A - Fleet'!$A$2:$A$51</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2502,12 +2510,6 @@
     <t>No. vessels</t>
   </si>
   <si>
-    <t>Angantelo</t>
-  </si>
-  <si>
-    <t>Pesinggahan</t>
-  </si>
-  <si>
     <t>Dep. Date</t>
   </si>
   <si>
@@ -2562,10 +2564,16 @@
     <t>Bunutun</t>
   </si>
   <si>
-    <t>Jemelut</t>
-  </si>
-  <si>
     <t>Kusamba</t>
+  </si>
+  <si>
+    <t>Anantelo</t>
+  </si>
+  <si>
+    <t>Gemelut</t>
+  </si>
+  <si>
+    <t>Pessinggahan</t>
   </si>
 </sst>
 </file>
@@ -3844,7 +3852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3925,7 +3933,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="date" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the date on which this survey was conducted." sqref="B3">
       <formula1>40909</formula1>
       <formula2>55153</formula2>
@@ -3942,18 +3950,15 @@
       <formula1>0</formula1>
       <formula2>9999</formula2>
     </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid desa ID code. Please check the &quot;Desa Codes&quot; tab." sqref="B2">
+      <formula1>Desas</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid desa ID code. Please check the &quot;Desa Codes&quot; tab.">
-          <x14:formula1>
-            <xm:f>'Desa Codes'!A2:A1000</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid fishery ID code. Please check the &quot;Fishery Codes&quot; tab.">
           <x14:formula1>
             <xm:f>'Fishery Codes'!A2:A1000</xm:f>
@@ -4011,7 +4016,7 @@
         <v>820</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>13</v>
@@ -4020,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>17</v>
@@ -4035,10 +4040,10 @@
         <v>23</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>805</v>
@@ -5430,7 +5435,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="16">
+  <dataValidations count="19">
     <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the volume of fuel in liters used during this trip (0-1000)." sqref="N2:N51">
       <formula1>0</formula1>
       <formula2>1000</formula2>
@@ -5490,32 +5495,19 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a recognized code for the sea conditions. Permitted values are:_x000d__x000d_1: Calm_x000d_2: Moderate_x000d_3: Rough" sqref="R2:R51">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid graticule ID code. Please check the &quot;Graticule Codes&quot; tab." sqref="H2:H51">
+      <formula1>Graticules</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid gear ID code. Please check the &quot;Gear Codes&quot; tab." sqref="P2:P51">
+      <formula1>Gears</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid fish ID code. Please check the &quot;Fish Codes&quot; tab." sqref="S2:S51">
+      <formula1>Species</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid graticule ID code. Please check the &quot;Graticule Codes&quot; tab.">
-          <x14:formula1>
-            <xm:f>'Graticule Codes'!$A$2:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid gear ID code. Please check the &quot;Gear Codes&quot; tab.">
-          <x14:formula1>
-            <xm:f>'Gear Codes'!$A$2:$A$62</xm:f>
-          </x14:formula1>
-          <xm:sqref>P2:P51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid fish ID code. Please check the &quot;Fish Codes&quot; tab.">
-          <x14:formula1>
-            <xm:f>'Species Codes'!A1:A1000</xm:f>
-          </x14:formula1>
-          <xm:sqref>S2:S51</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -10149,7 +10141,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Enter a whole number representing the length of the fish in mm." sqref="D2:D500">
       <formula1>1</formula1>
       <formula2>10000</formula2>
@@ -10157,26 +10149,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check you entry" error="Enter the sampling factor._x000d__x000d_Enter 'c' for conspicuous fish sampled from the entire catch._x000d__x000d_Enter 's' for sampled fish from the first basket unloaded." sqref="E2:E500">
       <formula1>"c,s"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please select a species code from the list. See the 'species codes' tab for a complete list. " sqref="C2:C500">
+      <formula1>Species</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Enter a valid vessel number" error="Please check the tab 'Form A - Fleet' and enter a valid vessel ID number from which the catch was sampled" sqref="B2:B500">
+      <formula1>Vessels</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="Please select a species code from the list. See the 'species codes' tab for a complete list. ">
-          <x14:formula1>
-            <xm:f>'Species Codes'!$A$2:$A$139</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Enter a valid vessel number" error="Please check the tab 'Form A - Fleet' and enter a valid vessel ID number from which the catch was sampled">
-          <x14:formula1>
-            <xm:f>'Form A - Fleet'!$A$2:$A$51</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B500</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -10188,9 +10170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -11402,9 +11382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3451"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -33888,9 +33866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -33905,52 +33881,52 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -33969,9 +33945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -34017,9 +33991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -34035,7 +34007,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="44" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B2" s="7"/>
     </row>
@@ -34047,7 +34019,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="44" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="B4" s="7"/>
     </row>
@@ -34059,13 +34031,13 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="44" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="45" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B7" s="7"/>
     </row>
@@ -34083,7 +34055,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="45" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B10" s="7"/>
     </row>
@@ -34101,7 +34073,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="45" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="B13" s="7"/>
     </row>
@@ -34113,7 +34085,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="45" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B15" s="7"/>
     </row>
@@ -34151,7 +34123,7 @@
       <c r="B23" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState ref="A2:A16">
     <sortCondition ref="A2"/>
   </sortState>

--- a/public/templates/SmallPelagicLandingSite.template.xlsx
+++ b/public/templates/SmallPelagicLandingSite.template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="C470" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -5453,7 +5453,7 @@
     </dataValidation>
     <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter the total value of the catch in Rupia (0-100000000). Leave blank if not known." sqref="V2:V51">
       <formula1>0</formula1>
-      <formula2>100000000</formula2>
+      <formula2>1000000000</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check your entry" error="You must enter a valid engine type. Permitted values are:_x000d__x000d_OB : Outboard_x000d_IB : Inboard_x000d_LT : Longtail" sqref="E2:E51">
       <formula1>"OB,LT,IB"</formula1>
